--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_25_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_25_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>384017.8509798753</v>
+        <v>250961.7203941157</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23545182.46746499</v>
+        <v>23545182.46746498</v>
       </c>
     </row>
     <row r="9">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>22.35759726426244</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1390,35 +1390,35 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>17.25181454439847</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
         <v>22.35759726426244</v>
       </c>
-      <c r="K11" t="n">
-        <v>22.35759726426244</v>
-      </c>
-      <c r="L11" t="n">
-        <v>3.771034163187494</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>21.02284870758596</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1493,31 +1493,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
         <v>22.35759726426244</v>
       </c>
-      <c r="R12" t="n">
+      <c r="W12" t="n">
         <v>22.35759726426244</v>
       </c>
-      <c r="S12" t="n">
+      <c r="X12" t="n">
+        <v>22.35759726426244</v>
+      </c>
+      <c r="Y12" t="n">
         <v>19.69257167036236</v>
-      </c>
-      <c r="T12" t="n">
-        <v>22.35759726426244</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>21.02284870758595</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>22.35759726426242</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1651,13 +1651,13 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>21.02284870758591</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426242</v>
       </c>
       <c r="S14" t="n">
-        <v>22.35759726426238</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1697,22 +1697,22 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>6.939353994888844</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>19.69257167036234</v>
       </c>
       <c r="H15" t="n">
-        <v>22.35759726426238</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>22.35759726426238</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>22.35759726426238</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>12.75321767547345</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1742,13 +1742,13 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>22.35759726426242</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>22.35759726426242</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>22.35759726426242</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1849,28 +1849,28 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>21.02284870758598</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>22.35759726426242</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>22.35759726426242</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>21.02284870758591</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>22.35759726426238</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>22.35759726426238</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>22.35759726426242</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1967,19 +1967,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.35759726426238</v>
+        <v>19.69257167036234</v>
       </c>
       <c r="R18" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426242</v>
       </c>
       <c r="S18" t="n">
-        <v>22.35759726426238</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>19.69257167036231</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>22.35759726426242</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2089,13 +2089,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>22.35759726426238</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>22.35759726426238</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>21.02284870758591</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2137,13 +2137,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>22.35759726426242</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>21.02284870758595</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>22.35759726426242</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2159,13 +2159,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>22.35759726426238</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>22.35759726426238</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>19.69257167036231</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2204,13 +2204,13 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>22.35759726426242</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>22.35759726426242</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>19.69257167036234</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2222,10 +2222,10 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>22.35759726426242</v>
       </c>
       <c r="X21" t="n">
-        <v>22.35759726426238</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2323,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>34.83098140993314</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2332,13 +2332,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>34.83098140993309</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>20.52640801858828</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2362,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>34.83098140993309</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>34.83098140993314</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>20.52640801858822</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2399,19 +2399,19 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>34.83098140993314</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>34.83098140993309</v>
+        <v>34.83098140993314</v>
       </c>
       <c r="F24" t="n">
-        <v>34.83098140993309</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>34.83098140993309</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>34.83098140993314</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2459,10 +2459,10 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>30.67912842586905</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>30.67912842586911</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2557,13 +2557,13 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>34.83098140993309</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>34.83098140993314</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2578,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>20.52640801858821</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2596,10 +2596,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>20.52640801858827</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>34.83098140993314</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>34.83098140993309</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,22 +2633,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>34.83098140993314</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>30.67912842586911</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>34.83098140993314</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>34.83098140993314</v>
       </c>
       <c r="G27" t="n">
-        <v>34.83098140993309</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>34.83098140993309</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2690,13 +2690,13 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>30.67912842586905</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>34.83098140993309</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2833,16 +2833,16 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>23.43469289314015</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>31.92269653538115</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>34.83098140993309</v>
+        <v>34.83098140993314</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>34.83098140993314</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2854,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>20.52640801858828</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2873,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>34.83098140993309</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2882,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>34.83098140993309</v>
+        <v>34.83098140993314</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2915,19 +2915,19 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>34.83098140993314</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>34.83098140993314</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>30.67912842586912</v>
       </c>
       <c r="T30" t="n">
-        <v>34.83098140993309</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>30.67912842586906</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>31.92269653538115</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3052,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>34.83098140993309</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3070,19 +3070,19 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>23.43469289314015</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>34.83098140993314</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>34.83098140993314</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>20.52640801858828</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>30.67912842586907</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3161,22 +3161,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>30.67912842586911</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>34.83098140993314</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>34.83098140993314</v>
       </c>
       <c r="W33" t="n">
-        <v>34.83098140993309</v>
+        <v>34.83098140993314</v>
       </c>
       <c r="X33" t="n">
-        <v>34.83098140993309</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>34.83098140993309</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>21.02284870758597</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3307,10 +3307,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>22.35759726426238</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>21.02284870758591</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>22.35759726426238</v>
+        <v>22.3575972642623</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>22.3575972642623</v>
       </c>
     </row>
     <row r="36">
@@ -3350,22 +3350,22 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>22.3575972642623</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>19.69257167036222</v>
       </c>
       <c r="F36" t="n">
-        <v>22.35759726426238</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>22.35759726426238</v>
+        <v>22.3575972642623</v>
       </c>
       <c r="H36" t="n">
-        <v>22.35759726426238</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>19.69257167036231</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3407,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>22.3575972642623</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3514,13 +3514,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>22.35759726426238</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>22.35759726426238</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>21.02284870758591</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3547,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>22.35759726426244</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3565,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>22.35759726426244</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>21.02284870758596</v>
       </c>
     </row>
     <row r="39">
@@ -3584,16 +3584,16 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>22.35759726426244</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>19.69257167036236</v>
       </c>
       <c r="F39" t="n">
-        <v>22.35759726426238</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3608,7 +3608,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>12.75321767547345</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -3626,10 +3626,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.939353994888844</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>22.35759726426238</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3638,13 +3638,13 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426244</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>22.35759726426244</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>21.02284870758591</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>22.35759726426244</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3796,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>22.35759726426244</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>21.02284870758596</v>
       </c>
       <c r="W41" t="n">
-        <v>22.35759726426238</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>22.35759726426238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3824,10 +3824,10 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>19.69257167036236</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>22.35759726426244</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3845,7 +3845,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>12.75321767547345</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -3863,25 +3863,25 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.35759726426238</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>22.35759726426238</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>6.939353994888851</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>22.35759726426244</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426244</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3991,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>22.35759726426238</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4018,10 +4018,10 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>22.35759726426238</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>21.02284870758591</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -4033,13 +4033,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>22.35759726426244</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>22.35759726426244</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>21.02284870758596</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4058,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>19.69257167036236</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4067,16 +4067,16 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>22.35759726426238</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>22.35759726426238</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>22.35759726426238</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>19.69257167036231</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>22.35759726426244</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>22.35759726426244</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4118,7 +4118,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>22.35759726426244</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>68.19067165600043</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="C11" t="n">
-        <v>68.19067165600043</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="D11" t="n">
-        <v>68.19067165600043</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="E11" t="n">
-        <v>68.19067165600043</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="F11" t="n">
-        <v>68.19067165600043</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="G11" t="n">
-        <v>68.19067165600043</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="H11" t="n">
-        <v>68.19067165600043</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="I11" t="n">
-        <v>50.76459635862824</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="J11" t="n">
-        <v>28.18116477856517</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="K11" t="n">
-        <v>5.5977331985021</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="L11" t="n">
         <v>1.788607781140995</v>
@@ -5065,28 +5065,28 @@
         <v>68.19067165600043</v>
       </c>
       <c r="R11" t="n">
-        <v>68.19067165600043</v>
+        <v>45.60724007593736</v>
       </c>
       <c r="S11" t="n">
-        <v>68.19067165600043</v>
+        <v>45.60724007593736</v>
       </c>
       <c r="T11" t="n">
-        <v>68.19067165600043</v>
+        <v>45.60724007593736</v>
       </c>
       <c r="U11" t="n">
-        <v>68.19067165600043</v>
+        <v>45.60724007593736</v>
       </c>
       <c r="V11" t="n">
-        <v>68.19067165600043</v>
+        <v>24.37203936120407</v>
       </c>
       <c r="W11" t="n">
-        <v>68.19067165600043</v>
+        <v>24.37203936120407</v>
       </c>
       <c r="X11" t="n">
-        <v>68.19067165600043</v>
+        <v>24.37203936120407</v>
       </c>
       <c r="Y11" t="n">
-        <v>68.19067165600043</v>
+        <v>24.37203936120407</v>
       </c>
     </row>
     <row r="12">
@@ -5126,7 +5126,7 @@
         <v>1.788607781140995</v>
       </c>
       <c r="L12" t="n">
-        <v>2.896175440403631</v>
+        <v>23.92262907276081</v>
       </c>
       <c r="M12" t="n">
         <v>25.03019673202344</v>
@@ -5141,28 +5141,28 @@
         <v>89.43038905704975</v>
       </c>
       <c r="Q12" t="n">
+        <v>89.43038905704975</v>
+      </c>
+      <c r="R12" t="n">
+        <v>89.43038905704975</v>
+      </c>
+      <c r="S12" t="n">
+        <v>89.43038905704975</v>
+      </c>
+      <c r="T12" t="n">
+        <v>89.43038905704975</v>
+      </c>
+      <c r="U12" t="n">
+        <v>89.43038905704975</v>
+      </c>
+      <c r="V12" t="n">
         <v>66.84695747698669</v>
       </c>
-      <c r="R12" t="n">
+      <c r="W12" t="n">
         <v>44.26352589692362</v>
       </c>
-      <c r="S12" t="n">
-        <v>24.37203936120407</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.788607781140995</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.788607781140995</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.788607781140995</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1.788607781140995</v>
-      </c>
       <c r="X12" t="n">
-        <v>1.788607781140995</v>
+        <v>21.68009431686055</v>
       </c>
       <c r="Y12" t="n">
         <v>1.788607781140995</v>
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.788607781140991</v>
+        <v>45.60724007593733</v>
       </c>
       <c r="C14" t="n">
-        <v>1.788607781140991</v>
+        <v>45.60724007593733</v>
       </c>
       <c r="D14" t="n">
-        <v>1.788607781140991</v>
+        <v>45.60724007593733</v>
       </c>
       <c r="E14" t="n">
-        <v>1.788607781140991</v>
+        <v>24.37203936120405</v>
       </c>
       <c r="F14" t="n">
-        <v>1.788607781140991</v>
+        <v>24.37203936120405</v>
       </c>
       <c r="G14" t="n">
-        <v>1.788607781140991</v>
+        <v>24.37203936120405</v>
       </c>
       <c r="H14" t="n">
-        <v>1.788607781140991</v>
+        <v>24.37203936120405</v>
       </c>
       <c r="I14" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="J14" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="K14" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="L14" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="M14" t="n">
-        <v>23.92262907276075</v>
+        <v>23.92262907276079</v>
       </c>
       <c r="N14" t="n">
-        <v>46.0566503643805</v>
+        <v>46.05665036438059</v>
       </c>
       <c r="O14" t="n">
-        <v>68.19067165600026</v>
+        <v>68.19067165600038</v>
       </c>
       <c r="P14" t="n">
-        <v>68.19067165600026</v>
+        <v>68.19067165600038</v>
       </c>
       <c r="Q14" t="n">
-        <v>46.95547094126702</v>
+        <v>68.19067165600038</v>
       </c>
       <c r="R14" t="n">
-        <v>24.372039361204</v>
+        <v>45.60724007593733</v>
       </c>
       <c r="S14" t="n">
-        <v>1.788607781140991</v>
+        <v>45.60724007593733</v>
       </c>
       <c r="T14" t="n">
-        <v>1.788607781140991</v>
+        <v>45.60724007593733</v>
       </c>
       <c r="U14" t="n">
-        <v>1.788607781140991</v>
+        <v>45.60724007593733</v>
       </c>
       <c r="V14" t="n">
-        <v>1.788607781140991</v>
+        <v>45.60724007593733</v>
       </c>
       <c r="W14" t="n">
-        <v>1.788607781140991</v>
+        <v>45.60724007593733</v>
       </c>
       <c r="X14" t="n">
-        <v>1.788607781140991</v>
+        <v>45.60724007593733</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.788607781140991</v>
+        <v>45.60724007593733</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>89.43038905704952</v>
+        <v>21.68009431686053</v>
       </c>
       <c r="C15" t="n">
-        <v>89.43038905704952</v>
+        <v>21.68009431686053</v>
       </c>
       <c r="D15" t="n">
-        <v>89.43038905704952</v>
+        <v>21.68009431686053</v>
       </c>
       <c r="E15" t="n">
-        <v>89.43038905704952</v>
+        <v>21.68009431686053</v>
       </c>
       <c r="F15" t="n">
-        <v>82.42094057736382</v>
+        <v>21.68009431686053</v>
       </c>
       <c r="G15" t="n">
-        <v>82.42094057736382</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="H15" t="n">
-        <v>59.83750899730081</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="I15" t="n">
-        <v>37.2540774172378</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="J15" t="n">
-        <v>14.67064583717478</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="K15" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="L15" t="n">
-        <v>23.92262907276075</v>
+        <v>2.896175440403617</v>
       </c>
       <c r="M15" t="n">
-        <v>46.0566503643805</v>
+        <v>25.03019673202341</v>
       </c>
       <c r="N15" t="n">
-        <v>68.19067165600026</v>
+        <v>47.16421802364321</v>
       </c>
       <c r="O15" t="n">
-        <v>89.43038905704952</v>
+        <v>69.298239315263</v>
       </c>
       <c r="P15" t="n">
-        <v>89.43038905704952</v>
+        <v>89.43038905704968</v>
       </c>
       <c r="Q15" t="n">
-        <v>89.43038905704952</v>
+        <v>89.43038905704968</v>
       </c>
       <c r="R15" t="n">
-        <v>89.43038905704952</v>
+        <v>89.43038905704968</v>
       </c>
       <c r="S15" t="n">
-        <v>89.43038905704952</v>
+        <v>89.43038905704968</v>
       </c>
       <c r="T15" t="n">
-        <v>89.43038905704952</v>
+        <v>89.43038905704968</v>
       </c>
       <c r="U15" t="n">
-        <v>89.43038905704952</v>
+        <v>66.84695747698663</v>
       </c>
       <c r="V15" t="n">
-        <v>89.43038905704952</v>
+        <v>44.26352589692358</v>
       </c>
       <c r="W15" t="n">
-        <v>89.43038905704952</v>
+        <v>21.68009431686053</v>
       </c>
       <c r="X15" t="n">
-        <v>89.43038905704952</v>
+        <v>21.68009431686053</v>
       </c>
       <c r="Y15" t="n">
-        <v>89.43038905704952</v>
+        <v>21.68009431686053</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="C16" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="D16" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="E16" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="F16" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="G16" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="H16" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="I16" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="J16" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="K16" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="L16" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="M16" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="N16" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="O16" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="P16" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="R16" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="S16" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="T16" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="U16" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="V16" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="W16" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="X16" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>68.19067165600026</v>
+        <v>68.1906716560004</v>
       </c>
       <c r="C17" t="n">
-        <v>68.19067165600026</v>
+        <v>68.1906716560004</v>
       </c>
       <c r="D17" t="n">
-        <v>68.19067165600026</v>
+        <v>46.95547094126709</v>
       </c>
       <c r="E17" t="n">
-        <v>68.19067165600026</v>
+        <v>24.37203936120405</v>
       </c>
       <c r="F17" t="n">
-        <v>68.19067165600026</v>
+        <v>24.37203936120405</v>
       </c>
       <c r="G17" t="n">
-        <v>68.19067165600026</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="H17" t="n">
-        <v>68.19067165600026</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="I17" t="n">
-        <v>46.95547094126702</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="J17" t="n">
-        <v>24.372039361204</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="K17" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="L17" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="M17" t="n">
-        <v>23.92262907276075</v>
+        <v>23.92262907276079</v>
       </c>
       <c r="N17" t="n">
-        <v>46.0566503643805</v>
+        <v>46.05665036438059</v>
       </c>
       <c r="O17" t="n">
-        <v>68.19067165600026</v>
+        <v>68.1906716560004</v>
       </c>
       <c r="P17" t="n">
-        <v>68.19067165600026</v>
+        <v>68.1906716560004</v>
       </c>
       <c r="Q17" t="n">
-        <v>68.19067165600026</v>
+        <v>68.1906716560004</v>
       </c>
       <c r="R17" t="n">
-        <v>68.19067165600026</v>
+        <v>68.1906716560004</v>
       </c>
       <c r="S17" t="n">
-        <v>68.19067165600026</v>
+        <v>68.1906716560004</v>
       </c>
       <c r="T17" t="n">
-        <v>68.19067165600026</v>
+        <v>68.1906716560004</v>
       </c>
       <c r="U17" t="n">
-        <v>68.19067165600026</v>
+        <v>68.1906716560004</v>
       </c>
       <c r="V17" t="n">
-        <v>68.19067165600026</v>
+        <v>68.1906716560004</v>
       </c>
       <c r="W17" t="n">
-        <v>68.19067165600026</v>
+        <v>68.1906716560004</v>
       </c>
       <c r="X17" t="n">
-        <v>68.19067165600026</v>
+        <v>68.1906716560004</v>
       </c>
       <c r="Y17" t="n">
-        <v>68.19067165600026</v>
+        <v>68.1906716560004</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.788607781140991</v>
+        <v>24.37203936120405</v>
       </c>
       <c r="C18" t="n">
-        <v>1.788607781140991</v>
+        <v>24.37203936120405</v>
       </c>
       <c r="D18" t="n">
-        <v>1.788607781140991</v>
+        <v>24.37203936120405</v>
       </c>
       <c r="E18" t="n">
-        <v>1.788607781140991</v>
+        <v>24.37203936120405</v>
       </c>
       <c r="F18" t="n">
-        <v>1.788607781140991</v>
+        <v>24.37203936120405</v>
       </c>
       <c r="G18" t="n">
-        <v>1.788607781140991</v>
+        <v>24.37203936120405</v>
       </c>
       <c r="H18" t="n">
-        <v>1.788607781140991</v>
+        <v>24.37203936120405</v>
       </c>
       <c r="I18" t="n">
-        <v>1.788607781140991</v>
+        <v>24.37203936120405</v>
       </c>
       <c r="J18" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="K18" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="L18" t="n">
-        <v>2.896175440403631</v>
+        <v>23.0283251821903</v>
       </c>
       <c r="M18" t="n">
-        <v>25.03019673202339</v>
+        <v>45.1623464738101</v>
       </c>
       <c r="N18" t="n">
-        <v>47.16421802364314</v>
+        <v>67.29636776542989</v>
       </c>
       <c r="O18" t="n">
-        <v>69.2982393152629</v>
+        <v>89.43038905704968</v>
       </c>
       <c r="P18" t="n">
-        <v>89.43038905704952</v>
+        <v>89.43038905704968</v>
       </c>
       <c r="Q18" t="n">
-        <v>66.84695747698652</v>
+        <v>69.53890252133014</v>
       </c>
       <c r="R18" t="n">
-        <v>44.2635258969235</v>
+        <v>46.95547094126709</v>
       </c>
       <c r="S18" t="n">
-        <v>21.68009431686049</v>
+        <v>46.95547094126709</v>
       </c>
       <c r="T18" t="n">
-        <v>1.788607781140991</v>
+        <v>46.95547094126709</v>
       </c>
       <c r="U18" t="n">
-        <v>1.788607781140991</v>
+        <v>24.37203936120405</v>
       </c>
       <c r="V18" t="n">
-        <v>1.788607781140991</v>
+        <v>24.37203936120405</v>
       </c>
       <c r="W18" t="n">
-        <v>1.788607781140991</v>
+        <v>24.37203936120405</v>
       </c>
       <c r="X18" t="n">
-        <v>1.788607781140991</v>
+        <v>24.37203936120405</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.788607781140991</v>
+        <v>24.37203936120405</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="C19" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="D19" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="E19" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="F19" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="G19" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="H19" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="I19" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="J19" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="K19" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="L19" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="M19" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="N19" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="O19" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="P19" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="R19" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="S19" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="T19" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="U19" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="V19" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="W19" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="X19" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>68.19067165600026</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="C20" t="n">
-        <v>68.19067165600026</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="D20" t="n">
-        <v>68.19067165600026</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="E20" t="n">
-        <v>45.60724007593725</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="F20" t="n">
-        <v>23.02380849587423</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="G20" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="H20" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="I20" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="J20" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="K20" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="L20" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="M20" t="n">
-        <v>23.92262907276075</v>
+        <v>23.92262907276079</v>
       </c>
       <c r="N20" t="n">
-        <v>46.0566503643805</v>
+        <v>46.05665036438059</v>
       </c>
       <c r="O20" t="n">
-        <v>68.19067165600026</v>
+        <v>68.19067165600038</v>
       </c>
       <c r="P20" t="n">
-        <v>68.19067165600026</v>
+        <v>68.19067165600038</v>
       </c>
       <c r="Q20" t="n">
-        <v>68.19067165600026</v>
+        <v>68.19067165600038</v>
       </c>
       <c r="R20" t="n">
-        <v>68.19067165600026</v>
+        <v>68.19067165600038</v>
       </c>
       <c r="S20" t="n">
-        <v>68.19067165600026</v>
+        <v>68.19067165600038</v>
       </c>
       <c r="T20" t="n">
-        <v>68.19067165600026</v>
+        <v>68.19067165600038</v>
       </c>
       <c r="U20" t="n">
-        <v>68.19067165600026</v>
+        <v>45.60724007593733</v>
       </c>
       <c r="V20" t="n">
-        <v>68.19067165600026</v>
+        <v>24.37203936120405</v>
       </c>
       <c r="W20" t="n">
-        <v>68.19067165600026</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="X20" t="n">
-        <v>68.19067165600026</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="Y20" t="n">
-        <v>68.19067165600026</v>
+        <v>1.788607781140994</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>44.2635258969235</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="C21" t="n">
-        <v>21.68009431686049</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="D21" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="E21" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="F21" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="G21" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="H21" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="I21" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="J21" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="K21" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="L21" t="n">
-        <v>23.92262907276075</v>
+        <v>23.92262907276079</v>
       </c>
       <c r="M21" t="n">
-        <v>46.0566503643805</v>
+        <v>46.05665036438059</v>
       </c>
       <c r="N21" t="n">
-        <v>68.19067165600026</v>
+        <v>68.19067165600038</v>
       </c>
       <c r="O21" t="n">
-        <v>69.2982393152629</v>
+        <v>89.43038905704968</v>
       </c>
       <c r="P21" t="n">
-        <v>89.43038905704952</v>
+        <v>89.43038905704968</v>
       </c>
       <c r="Q21" t="n">
-        <v>89.43038905704952</v>
+        <v>66.84695747698663</v>
       </c>
       <c r="R21" t="n">
-        <v>89.43038905704952</v>
+        <v>44.26352589692358</v>
       </c>
       <c r="S21" t="n">
-        <v>89.43038905704952</v>
+        <v>24.37203936120405</v>
       </c>
       <c r="T21" t="n">
-        <v>89.43038905704952</v>
+        <v>24.37203936120405</v>
       </c>
       <c r="U21" t="n">
-        <v>89.43038905704952</v>
+        <v>24.37203936120405</v>
       </c>
       <c r="V21" t="n">
-        <v>89.43038905704952</v>
+        <v>24.37203936120405</v>
       </c>
       <c r="W21" t="n">
-        <v>89.43038905704952</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="X21" t="n">
-        <v>66.84695747698652</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="Y21" t="n">
-        <v>66.84695747698652</v>
+        <v>1.788607781140994</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="C22" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="D22" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="E22" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="F22" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="G22" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="H22" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="I22" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="J22" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="K22" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="L22" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="M22" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="N22" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="O22" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="P22" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="R22" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="S22" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="T22" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="U22" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="V22" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="W22" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="X22" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140994</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>37.96928801777756</v>
+        <v>58.70303349109913</v>
       </c>
       <c r="C23" t="n">
-        <v>37.96928801777756</v>
+        <v>58.70303349109913</v>
       </c>
       <c r="D23" t="n">
-        <v>37.96928801777756</v>
+        <v>23.52022398611615</v>
       </c>
       <c r="E23" t="n">
-        <v>37.96928801777756</v>
+        <v>23.52022398611615</v>
       </c>
       <c r="F23" t="n">
-        <v>37.96928801777756</v>
+        <v>23.52022398611615</v>
       </c>
       <c r="G23" t="n">
-        <v>2.786478512794647</v>
+        <v>23.52022398611615</v>
       </c>
       <c r="H23" t="n">
-        <v>2.786478512794647</v>
+        <v>23.52022398611615</v>
       </c>
       <c r="I23" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="J23" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="K23" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="L23" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="M23" t="n">
-        <v>37.2691501086284</v>
+        <v>37.26915010862847</v>
       </c>
       <c r="N23" t="n">
-        <v>71.75182170446216</v>
+        <v>71.75182170446229</v>
       </c>
       <c r="O23" t="n">
-        <v>93.88584299608192</v>
+        <v>93.8858429960821</v>
       </c>
       <c r="P23" t="n">
-        <v>93.88584299608192</v>
+        <v>93.8858429960821</v>
       </c>
       <c r="Q23" t="n">
-        <v>58.703033491099</v>
+        <v>93.8858429960821</v>
       </c>
       <c r="R23" t="n">
-        <v>58.703033491099</v>
+        <v>93.8858429960821</v>
       </c>
       <c r="S23" t="n">
-        <v>58.703033491099</v>
+        <v>93.8858429960821</v>
       </c>
       <c r="T23" t="n">
-        <v>58.703033491099</v>
+        <v>93.8858429960821</v>
       </c>
       <c r="U23" t="n">
-        <v>58.703033491099</v>
+        <v>58.70303349109913</v>
       </c>
       <c r="V23" t="n">
-        <v>58.703033491099</v>
+        <v>58.70303349109913</v>
       </c>
       <c r="W23" t="n">
-        <v>58.703033491099</v>
+        <v>58.70303349109913</v>
       </c>
       <c r="X23" t="n">
-        <v>37.96928801777756</v>
+        <v>58.70303349109913</v>
       </c>
       <c r="Y23" t="n">
-        <v>37.96928801777756</v>
+        <v>58.70303349109913</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>108.3349070277434</v>
+        <v>73.15209752276061</v>
       </c>
       <c r="C24" t="n">
-        <v>108.3349070277434</v>
+        <v>37.96928801777763</v>
       </c>
       <c r="D24" t="n">
-        <v>108.3349070277434</v>
+        <v>37.96928801777763</v>
       </c>
       <c r="E24" t="n">
-        <v>73.15209752276049</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="F24" t="n">
-        <v>37.96928801777756</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="G24" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="H24" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="I24" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="J24" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="K24" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="L24" t="n">
-        <v>15.74376111044445</v>
+        <v>37.26915010862847</v>
       </c>
       <c r="M24" t="n">
-        <v>50.22643270627821</v>
+        <v>50.22643270627827</v>
       </c>
       <c r="N24" t="n">
-        <v>84.70910430211197</v>
+        <v>84.70910430211208</v>
       </c>
       <c r="O24" t="n">
-        <v>119.1917758979457</v>
+        <v>119.1917758979459</v>
       </c>
       <c r="P24" t="n">
-        <v>139.3239256397324</v>
+        <v>139.3239256397326</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.3239256397324</v>
+        <v>139.3239256397326</v>
       </c>
       <c r="R24" t="n">
-        <v>139.3239256397324</v>
+        <v>139.3239256397326</v>
       </c>
       <c r="S24" t="n">
-        <v>139.3239256397324</v>
+        <v>104.1411161347496</v>
       </c>
       <c r="T24" t="n">
-        <v>139.3239256397324</v>
+        <v>104.1411161347496</v>
       </c>
       <c r="U24" t="n">
-        <v>139.3239256397324</v>
+        <v>104.1411161347496</v>
       </c>
       <c r="V24" t="n">
-        <v>139.3239256397324</v>
+        <v>104.1411161347496</v>
       </c>
       <c r="W24" t="n">
-        <v>108.3349070277434</v>
+        <v>104.1411161347496</v>
       </c>
       <c r="X24" t="n">
-        <v>108.3349070277434</v>
+        <v>73.15209752276061</v>
       </c>
       <c r="Y24" t="n">
-        <v>108.3349070277434</v>
+        <v>73.15209752276061</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="C25" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="D25" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="E25" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="F25" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="G25" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="H25" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="I25" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="J25" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="K25" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="L25" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="M25" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="N25" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="O25" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="P25" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="R25" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="S25" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="T25" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="U25" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="V25" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="W25" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="X25" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="Y25" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>58.703033491099</v>
+        <v>37.96928801777763</v>
       </c>
       <c r="C26" t="n">
-        <v>23.52022398611608</v>
+        <v>37.96928801777763</v>
       </c>
       <c r="D26" t="n">
-        <v>23.52022398611608</v>
+        <v>37.96928801777763</v>
       </c>
       <c r="E26" t="n">
-        <v>23.52022398611608</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="F26" t="n">
-        <v>23.52022398611608</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="G26" t="n">
-        <v>23.52022398611608</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="H26" t="n">
-        <v>23.52022398611608</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="I26" t="n">
-        <v>23.52022398611608</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="J26" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="K26" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="L26" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="M26" t="n">
-        <v>37.2691501086284</v>
+        <v>37.26915010862847</v>
       </c>
       <c r="N26" t="n">
-        <v>71.75182170446216</v>
+        <v>71.75182170446229</v>
       </c>
       <c r="O26" t="n">
-        <v>93.88584299608192</v>
+        <v>93.8858429960821</v>
       </c>
       <c r="P26" t="n">
-        <v>93.88584299608192</v>
+        <v>73.15209752276061</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.88584299608192</v>
+        <v>37.96928801777763</v>
       </c>
       <c r="R26" t="n">
-        <v>93.88584299608192</v>
+        <v>37.96928801777763</v>
       </c>
       <c r="S26" t="n">
-        <v>93.88584299608192</v>
+        <v>37.96928801777763</v>
       </c>
       <c r="T26" t="n">
-        <v>93.88584299608192</v>
+        <v>37.96928801777763</v>
       </c>
       <c r="U26" t="n">
-        <v>93.88584299608192</v>
+        <v>37.96928801777763</v>
       </c>
       <c r="V26" t="n">
-        <v>93.88584299608192</v>
+        <v>37.96928801777763</v>
       </c>
       <c r="W26" t="n">
-        <v>93.88584299608192</v>
+        <v>37.96928801777763</v>
       </c>
       <c r="X26" t="n">
-        <v>93.88584299608192</v>
+        <v>37.96928801777763</v>
       </c>
       <c r="Y26" t="n">
-        <v>58.703033491099</v>
+        <v>37.96928801777763</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>73.15209752276049</v>
+        <v>104.1411161347496</v>
       </c>
       <c r="C27" t="n">
-        <v>73.15209752276049</v>
+        <v>104.1411161347496</v>
       </c>
       <c r="D27" t="n">
-        <v>73.15209752276049</v>
+        <v>73.15209752276061</v>
       </c>
       <c r="E27" t="n">
-        <v>73.15209752276049</v>
+        <v>37.96928801777763</v>
       </c>
       <c r="F27" t="n">
-        <v>73.15209752276049</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="G27" t="n">
-        <v>37.96928801777756</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="H27" t="n">
-        <v>37.96928801777756</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="I27" t="n">
-        <v>37.96928801777756</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="J27" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="K27" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="L27" t="n">
-        <v>15.74376111044445</v>
+        <v>37.26915010862847</v>
       </c>
       <c r="M27" t="n">
-        <v>50.22643270627821</v>
+        <v>71.75182170446229</v>
       </c>
       <c r="N27" t="n">
-        <v>84.70910430211197</v>
+        <v>106.2344933002961</v>
       </c>
       <c r="O27" t="n">
-        <v>119.1917758979457</v>
+        <v>139.3239256397326</v>
       </c>
       <c r="P27" t="n">
-        <v>139.3239256397324</v>
+        <v>139.3239256397326</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.3239256397324</v>
+        <v>139.3239256397326</v>
       </c>
       <c r="R27" t="n">
-        <v>139.3239256397324</v>
+        <v>139.3239256397326</v>
       </c>
       <c r="S27" t="n">
-        <v>139.3239256397324</v>
+        <v>139.3239256397326</v>
       </c>
       <c r="T27" t="n">
-        <v>139.3239256397324</v>
+        <v>139.3239256397326</v>
       </c>
       <c r="U27" t="n">
-        <v>108.3349070277434</v>
+        <v>139.3239256397326</v>
       </c>
       <c r="V27" t="n">
-        <v>108.3349070277434</v>
+        <v>139.3239256397326</v>
       </c>
       <c r="W27" t="n">
-        <v>73.15209752276049</v>
+        <v>139.3239256397326</v>
       </c>
       <c r="X27" t="n">
-        <v>73.15209752276049</v>
+        <v>139.3239256397326</v>
       </c>
       <c r="Y27" t="n">
-        <v>73.15209752276049</v>
+        <v>139.3239256397326</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="C28" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="D28" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="E28" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="F28" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="G28" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="H28" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="I28" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="J28" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="K28" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="L28" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="M28" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="N28" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="O28" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="P28" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="R28" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="S28" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="T28" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="U28" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="V28" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="W28" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="X28" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="Y28" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="C29" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="D29" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="E29" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="F29" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="G29" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="H29" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="I29" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="J29" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="K29" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="L29" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="M29" t="n">
-        <v>37.2691501086284</v>
+        <v>37.26915010862847</v>
       </c>
       <c r="N29" t="n">
-        <v>71.75182170446216</v>
+        <v>71.75182170446229</v>
       </c>
       <c r="O29" t="n">
-        <v>93.88584299608192</v>
+        <v>93.8858429960821</v>
       </c>
       <c r="P29" t="n">
-        <v>70.21443603331409</v>
+        <v>93.8858429960821</v>
       </c>
       <c r="Q29" t="n">
-        <v>37.96928801777756</v>
+        <v>93.8858429960821</v>
       </c>
       <c r="R29" t="n">
-        <v>2.786478512794647</v>
+        <v>58.70303349109913</v>
       </c>
       <c r="S29" t="n">
-        <v>2.786478512794647</v>
+        <v>23.52022398611615</v>
       </c>
       <c r="T29" t="n">
-        <v>2.786478512794647</v>
+        <v>23.52022398611615</v>
       </c>
       <c r="U29" t="n">
-        <v>2.786478512794647</v>
+        <v>23.52022398611615</v>
       </c>
       <c r="V29" t="n">
-        <v>2.786478512794647</v>
+        <v>23.52022398611615</v>
       </c>
       <c r="W29" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="X29" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="Y29" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>73.15209752276049</v>
+        <v>37.96928801777763</v>
       </c>
       <c r="C30" t="n">
-        <v>37.96928801777756</v>
+        <v>37.96928801777763</v>
       </c>
       <c r="D30" t="n">
-        <v>37.96928801777756</v>
+        <v>37.96928801777763</v>
       </c>
       <c r="E30" t="n">
-        <v>37.96928801777756</v>
+        <v>37.96928801777763</v>
       </c>
       <c r="F30" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="G30" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="H30" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="I30" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="J30" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="K30" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="L30" t="n">
-        <v>15.74376111044445</v>
+        <v>37.26915010862847</v>
       </c>
       <c r="M30" t="n">
-        <v>50.22643270627821</v>
+        <v>71.75182170446229</v>
       </c>
       <c r="N30" t="n">
-        <v>84.70910430211197</v>
+        <v>84.70910430211208</v>
       </c>
       <c r="O30" t="n">
-        <v>119.1917758979457</v>
+        <v>119.1917758979459</v>
       </c>
       <c r="P30" t="n">
-        <v>139.3239256397324</v>
+        <v>139.3239256397326</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.3239256397324</v>
+        <v>104.1411161347496</v>
       </c>
       <c r="R30" t="n">
-        <v>139.3239256397324</v>
+        <v>68.95830662976664</v>
       </c>
       <c r="S30" t="n">
-        <v>139.3239256397324</v>
+        <v>37.96928801777763</v>
       </c>
       <c r="T30" t="n">
-        <v>104.1411161347494</v>
+        <v>37.96928801777763</v>
       </c>
       <c r="U30" t="n">
-        <v>73.15209752276049</v>
+        <v>37.96928801777763</v>
       </c>
       <c r="V30" t="n">
-        <v>73.15209752276049</v>
+        <v>37.96928801777763</v>
       </c>
       <c r="W30" t="n">
-        <v>73.15209752276049</v>
+        <v>37.96928801777763</v>
       </c>
       <c r="X30" t="n">
-        <v>73.15209752276049</v>
+        <v>37.96928801777763</v>
       </c>
       <c r="Y30" t="n">
-        <v>73.15209752276049</v>
+        <v>37.96928801777763</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="C31" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="D31" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="E31" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="F31" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="G31" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="H31" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="I31" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="J31" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="K31" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="L31" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="M31" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="N31" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="O31" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="P31" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="R31" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="S31" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="T31" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="U31" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="V31" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="W31" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="X31" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="Y31" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>70.21443603331409</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="C32" t="n">
-        <v>70.21443603331409</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="D32" t="n">
-        <v>70.21443603331409</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="E32" t="n">
-        <v>70.21443603331409</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="F32" t="n">
-        <v>37.96928801777756</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="G32" t="n">
-        <v>37.96928801777756</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="H32" t="n">
-        <v>37.96928801777756</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="I32" t="n">
-        <v>37.96928801777756</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="J32" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="K32" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="L32" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="M32" t="n">
-        <v>37.2691501086284</v>
+        <v>37.26915010862847</v>
       </c>
       <c r="N32" t="n">
-        <v>71.75182170446216</v>
+        <v>71.75182170446229</v>
       </c>
       <c r="O32" t="n">
-        <v>93.88584299608192</v>
+        <v>93.8858429960821</v>
       </c>
       <c r="P32" t="n">
-        <v>70.21443603331409</v>
+        <v>93.8858429960821</v>
       </c>
       <c r="Q32" t="n">
-        <v>70.21443603331409</v>
+        <v>93.8858429960821</v>
       </c>
       <c r="R32" t="n">
-        <v>70.21443603331409</v>
+        <v>58.70303349109913</v>
       </c>
       <c r="S32" t="n">
-        <v>70.21443603331409</v>
+        <v>58.70303349109913</v>
       </c>
       <c r="T32" t="n">
-        <v>70.21443603331409</v>
+        <v>23.52022398611615</v>
       </c>
       <c r="U32" t="n">
-        <v>70.21443603331409</v>
+        <v>23.52022398611615</v>
       </c>
       <c r="V32" t="n">
-        <v>70.21443603331409</v>
+        <v>23.52022398611615</v>
       </c>
       <c r="W32" t="n">
-        <v>70.21443603331409</v>
+        <v>23.52022398611615</v>
       </c>
       <c r="X32" t="n">
-        <v>70.21443603331409</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="Y32" t="n">
-        <v>70.21443603331409</v>
+        <v>2.786478512794651</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="C33" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="D33" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="E33" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="F33" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="G33" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="H33" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="I33" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="J33" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="K33" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="L33" t="n">
-        <v>37.2691501086284</v>
+        <v>37.26915010862847</v>
       </c>
       <c r="M33" t="n">
-        <v>71.75182170446216</v>
+        <v>71.75182170446229</v>
       </c>
       <c r="N33" t="n">
-        <v>106.2344933002959</v>
+        <v>106.2344933002961</v>
       </c>
       <c r="O33" t="n">
-        <v>119.1917758979457</v>
+        <v>139.3239256397326</v>
       </c>
       <c r="P33" t="n">
-        <v>139.3239256397324</v>
+        <v>139.3239256397326</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.3239256397324</v>
+        <v>139.3239256397326</v>
       </c>
       <c r="R33" t="n">
-        <v>139.3239256397324</v>
+        <v>139.3239256397326</v>
       </c>
       <c r="S33" t="n">
-        <v>139.3239256397324</v>
+        <v>139.3239256397326</v>
       </c>
       <c r="T33" t="n">
-        <v>139.3239256397324</v>
+        <v>108.3349070277436</v>
       </c>
       <c r="U33" t="n">
-        <v>139.3239256397324</v>
+        <v>73.15209752276061</v>
       </c>
       <c r="V33" t="n">
-        <v>139.3239256397324</v>
+        <v>37.96928801777763</v>
       </c>
       <c r="W33" t="n">
-        <v>104.1411161347494</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="X33" t="n">
-        <v>68.95830662976653</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="Y33" t="n">
-        <v>33.77549712478361</v>
+        <v>2.786478512794651</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>139.3239256397324</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="C34" t="n">
-        <v>139.3239256397324</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="D34" t="n">
-        <v>139.3239256397324</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="E34" t="n">
-        <v>139.3239256397324</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="F34" t="n">
-        <v>139.3239256397324</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="G34" t="n">
-        <v>139.3239256397324</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="H34" t="n">
-        <v>139.3239256397324</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="I34" t="n">
-        <v>139.3239256397324</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="J34" t="n">
-        <v>139.3239256397324</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="K34" t="n">
-        <v>139.3239256397324</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="L34" t="n">
-        <v>139.3239256397324</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="M34" t="n">
-        <v>139.3239256397324</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="N34" t="n">
-        <v>139.3239256397324</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="O34" t="n">
-        <v>139.3239256397324</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="P34" t="n">
-        <v>139.3239256397324</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="Q34" t="n">
-        <v>139.3239256397324</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="R34" t="n">
-        <v>139.3239256397324</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="S34" t="n">
-        <v>139.3239256397324</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="T34" t="n">
-        <v>139.3239256397324</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="U34" t="n">
-        <v>139.3239256397324</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="V34" t="n">
-        <v>139.3239256397324</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="W34" t="n">
-        <v>139.3239256397324</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="X34" t="n">
-        <v>139.3239256397324</v>
+        <v>2.786478512794651</v>
       </c>
       <c r="Y34" t="n">
-        <v>139.3239256397324</v>
+        <v>2.786478512794651</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.788607781140991</v>
+        <v>23.02380849587429</v>
       </c>
       <c r="C35" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140984</v>
       </c>
       <c r="D35" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140984</v>
       </c>
       <c r="E35" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140984</v>
       </c>
       <c r="F35" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140984</v>
       </c>
       <c r="G35" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140984</v>
       </c>
       <c r="H35" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140984</v>
       </c>
       <c r="I35" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140984</v>
       </c>
       <c r="J35" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140984</v>
       </c>
       <c r="K35" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140984</v>
       </c>
       <c r="L35" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140984</v>
       </c>
       <c r="M35" t="n">
-        <v>23.92262907276075</v>
+        <v>23.92262907276066</v>
       </c>
       <c r="N35" t="n">
-        <v>46.0566503643805</v>
+        <v>46.05665036438033</v>
       </c>
       <c r="O35" t="n">
-        <v>68.19067165600026</v>
+        <v>68.19067165600015</v>
       </c>
       <c r="P35" t="n">
-        <v>45.60724007593725</v>
+        <v>68.19067165600015</v>
       </c>
       <c r="Q35" t="n">
-        <v>24.372039361204</v>
+        <v>68.19067165600015</v>
       </c>
       <c r="R35" t="n">
-        <v>24.372039361204</v>
+        <v>68.19067165600015</v>
       </c>
       <c r="S35" t="n">
-        <v>24.372039361204</v>
+        <v>68.19067165600015</v>
       </c>
       <c r="T35" t="n">
-        <v>24.372039361204</v>
+        <v>68.19067165600015</v>
       </c>
       <c r="U35" t="n">
-        <v>1.788607781140991</v>
+        <v>45.60724007593722</v>
       </c>
       <c r="V35" t="n">
-        <v>1.788607781140991</v>
+        <v>45.60724007593722</v>
       </c>
       <c r="W35" t="n">
-        <v>1.788607781140991</v>
+        <v>45.60724007593722</v>
       </c>
       <c r="X35" t="n">
-        <v>1.788607781140991</v>
+        <v>45.60724007593722</v>
       </c>
       <c r="Y35" t="n">
-        <v>1.788607781140991</v>
+        <v>23.02380849587429</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>89.43038905704952</v>
+        <v>66.84695747698626</v>
       </c>
       <c r="C36" t="n">
-        <v>89.43038905704952</v>
+        <v>66.84695747698626</v>
       </c>
       <c r="D36" t="n">
-        <v>89.43038905704952</v>
+        <v>44.26352589692333</v>
       </c>
       <c r="E36" t="n">
-        <v>89.43038905704952</v>
+        <v>24.37203936120391</v>
       </c>
       <c r="F36" t="n">
-        <v>66.84695747698652</v>
+        <v>24.37203936120391</v>
       </c>
       <c r="G36" t="n">
-        <v>44.2635258969235</v>
+        <v>1.788607781140984</v>
       </c>
       <c r="H36" t="n">
-        <v>21.68009431686049</v>
+        <v>1.788607781140984</v>
       </c>
       <c r="I36" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140984</v>
       </c>
       <c r="J36" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140984</v>
       </c>
       <c r="K36" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140984</v>
       </c>
       <c r="L36" t="n">
-        <v>23.92262907276075</v>
+        <v>2.896175440403496</v>
       </c>
       <c r="M36" t="n">
-        <v>25.03019673202339</v>
+        <v>25.03019673202317</v>
       </c>
       <c r="N36" t="n">
-        <v>47.16421802364314</v>
+        <v>47.16421802364285</v>
       </c>
       <c r="O36" t="n">
-        <v>69.2982393152629</v>
+        <v>69.29823931526252</v>
       </c>
       <c r="P36" t="n">
-        <v>89.43038905704952</v>
+        <v>89.4303890570492</v>
       </c>
       <c r="Q36" t="n">
-        <v>89.43038905704952</v>
+        <v>89.4303890570492</v>
       </c>
       <c r="R36" t="n">
-        <v>89.43038905704952</v>
+        <v>89.4303890570492</v>
       </c>
       <c r="S36" t="n">
-        <v>89.43038905704952</v>
+        <v>89.4303890570492</v>
       </c>
       <c r="T36" t="n">
-        <v>89.43038905704952</v>
+        <v>89.4303890570492</v>
       </c>
       <c r="U36" t="n">
-        <v>89.43038905704952</v>
+        <v>89.4303890570492</v>
       </c>
       <c r="V36" t="n">
-        <v>89.43038905704952</v>
+        <v>89.4303890570492</v>
       </c>
       <c r="W36" t="n">
-        <v>89.43038905704952</v>
+        <v>66.84695747698626</v>
       </c>
       <c r="X36" t="n">
-        <v>89.43038905704952</v>
+        <v>66.84695747698626</v>
       </c>
       <c r="Y36" t="n">
-        <v>89.43038905704952</v>
+        <v>66.84695747698626</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>89.43038905704952</v>
+        <v>1.788607781140984</v>
       </c>
       <c r="C37" t="n">
-        <v>89.43038905704952</v>
+        <v>1.788607781140984</v>
       </c>
       <c r="D37" t="n">
-        <v>89.43038905704952</v>
+        <v>1.788607781140984</v>
       </c>
       <c r="E37" t="n">
-        <v>89.43038905704952</v>
+        <v>1.788607781140984</v>
       </c>
       <c r="F37" t="n">
-        <v>89.43038905704952</v>
+        <v>1.788607781140984</v>
       </c>
       <c r="G37" t="n">
-        <v>89.43038905704952</v>
+        <v>1.788607781140984</v>
       </c>
       <c r="H37" t="n">
-        <v>89.43038905704952</v>
+        <v>1.788607781140984</v>
       </c>
       <c r="I37" t="n">
-        <v>89.43038905704952</v>
+        <v>1.788607781140984</v>
       </c>
       <c r="J37" t="n">
-        <v>89.43038905704952</v>
+        <v>1.788607781140984</v>
       </c>
       <c r="K37" t="n">
-        <v>89.43038905704952</v>
+        <v>1.788607781140984</v>
       </c>
       <c r="L37" t="n">
-        <v>89.43038905704952</v>
+        <v>1.788607781140984</v>
       </c>
       <c r="M37" t="n">
-        <v>89.43038905704952</v>
+        <v>1.788607781140984</v>
       </c>
       <c r="N37" t="n">
-        <v>89.43038905704952</v>
+        <v>1.788607781140984</v>
       </c>
       <c r="O37" t="n">
-        <v>89.43038905704952</v>
+        <v>1.788607781140984</v>
       </c>
       <c r="P37" t="n">
-        <v>89.43038905704952</v>
+        <v>1.788607781140984</v>
       </c>
       <c r="Q37" t="n">
-        <v>89.43038905704952</v>
+        <v>1.788607781140984</v>
       </c>
       <c r="R37" t="n">
-        <v>89.43038905704952</v>
+        <v>1.788607781140984</v>
       </c>
       <c r="S37" t="n">
-        <v>89.43038905704952</v>
+        <v>1.788607781140984</v>
       </c>
       <c r="T37" t="n">
-        <v>89.43038905704952</v>
+        <v>1.788607781140984</v>
       </c>
       <c r="U37" t="n">
-        <v>89.43038905704952</v>
+        <v>1.788607781140984</v>
       </c>
       <c r="V37" t="n">
-        <v>89.43038905704952</v>
+        <v>1.788607781140984</v>
       </c>
       <c r="W37" t="n">
-        <v>89.43038905704952</v>
+        <v>1.788607781140984</v>
       </c>
       <c r="X37" t="n">
-        <v>89.43038905704952</v>
+        <v>1.788607781140984</v>
       </c>
       <c r="Y37" t="n">
-        <v>89.43038905704952</v>
+        <v>1.788607781140984</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>68.19067165600026</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="C38" t="n">
-        <v>68.19067165600026</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="D38" t="n">
-        <v>68.19067165600026</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="E38" t="n">
-        <v>68.19067165600026</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="F38" t="n">
-        <v>45.60724007593725</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="G38" t="n">
-        <v>23.02380849587423</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="H38" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="I38" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="J38" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="K38" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="L38" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="M38" t="n">
-        <v>23.92262907276075</v>
+        <v>23.92262907276081</v>
       </c>
       <c r="N38" t="n">
-        <v>46.0566503643805</v>
+        <v>46.05665036438062</v>
       </c>
       <c r="O38" t="n">
-        <v>68.19067165600026</v>
+        <v>68.19067165600043</v>
       </c>
       <c r="P38" t="n">
-        <v>68.19067165600026</v>
+        <v>68.19067165600043</v>
       </c>
       <c r="Q38" t="n">
-        <v>68.19067165600026</v>
+        <v>45.60724007593736</v>
       </c>
       <c r="R38" t="n">
-        <v>68.19067165600026</v>
+        <v>45.60724007593736</v>
       </c>
       <c r="S38" t="n">
-        <v>68.19067165600026</v>
+        <v>45.60724007593736</v>
       </c>
       <c r="T38" t="n">
-        <v>68.19067165600026</v>
+        <v>45.60724007593736</v>
       </c>
       <c r="U38" t="n">
-        <v>68.19067165600026</v>
+        <v>45.60724007593736</v>
       </c>
       <c r="V38" t="n">
-        <v>68.19067165600026</v>
+        <v>45.60724007593736</v>
       </c>
       <c r="W38" t="n">
-        <v>68.19067165600026</v>
+        <v>23.02380849587429</v>
       </c>
       <c r="X38" t="n">
-        <v>68.19067165600026</v>
+        <v>23.02380849587429</v>
       </c>
       <c r="Y38" t="n">
-        <v>68.19067165600026</v>
+        <v>1.788607781140995</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>37.2540774172378</v>
+        <v>44.26352589692362</v>
       </c>
       <c r="C39" t="n">
-        <v>37.2540774172378</v>
+        <v>21.68009431686055</v>
       </c>
       <c r="D39" t="n">
-        <v>37.2540774172378</v>
+        <v>21.68009431686055</v>
       </c>
       <c r="E39" t="n">
-        <v>37.2540774172378</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="F39" t="n">
-        <v>14.67064583717478</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="G39" t="n">
-        <v>14.67064583717478</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="H39" t="n">
-        <v>14.67064583717478</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="I39" t="n">
-        <v>14.67064583717478</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="J39" t="n">
-        <v>14.67064583717478</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="K39" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="L39" t="n">
-        <v>2.896175440403631</v>
+        <v>23.92262907276081</v>
       </c>
       <c r="M39" t="n">
-        <v>25.03019673202339</v>
+        <v>46.05665036438062</v>
       </c>
       <c r="N39" t="n">
-        <v>47.16421802364314</v>
+        <v>68.19067165600043</v>
       </c>
       <c r="O39" t="n">
-        <v>69.2982393152629</v>
+        <v>69.29823931526307</v>
       </c>
       <c r="P39" t="n">
-        <v>89.43038905704952</v>
+        <v>89.43038905704975</v>
       </c>
       <c r="Q39" t="n">
-        <v>82.42094057736382</v>
+        <v>89.43038905704975</v>
       </c>
       <c r="R39" t="n">
-        <v>59.83750899730081</v>
+        <v>89.43038905704975</v>
       </c>
       <c r="S39" t="n">
-        <v>59.83750899730081</v>
+        <v>89.43038905704975</v>
       </c>
       <c r="T39" t="n">
-        <v>59.83750899730081</v>
+        <v>89.43038905704975</v>
       </c>
       <c r="U39" t="n">
-        <v>37.2540774172378</v>
+        <v>66.84695747698669</v>
       </c>
       <c r="V39" t="n">
-        <v>37.2540774172378</v>
+        <v>66.84695747698669</v>
       </c>
       <c r="W39" t="n">
-        <v>37.2540774172378</v>
+        <v>44.26352589692362</v>
       </c>
       <c r="X39" t="n">
-        <v>37.2540774172378</v>
+        <v>44.26352589692362</v>
       </c>
       <c r="Y39" t="n">
-        <v>37.2540774172378</v>
+        <v>44.26352589692362</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="C40" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="D40" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="E40" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="F40" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="G40" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="H40" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="I40" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="J40" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="K40" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="L40" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="M40" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="N40" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="O40" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="P40" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="R40" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="S40" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="T40" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="U40" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="V40" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="W40" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="X40" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="Y40" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.788607781140991</v>
+        <v>24.37203936120407</v>
       </c>
       <c r="C41" t="n">
-        <v>1.788607781140991</v>
+        <v>24.37203936120407</v>
       </c>
       <c r="D41" t="n">
-        <v>1.788607781140991</v>
+        <v>24.37203936120407</v>
       </c>
       <c r="E41" t="n">
-        <v>1.788607781140991</v>
+        <v>24.37203936120407</v>
       </c>
       <c r="F41" t="n">
-        <v>1.788607781140991</v>
+        <v>24.37203936120407</v>
       </c>
       <c r="G41" t="n">
-        <v>1.788607781140991</v>
+        <v>24.37203936120407</v>
       </c>
       <c r="H41" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="I41" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="J41" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="K41" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="L41" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="M41" t="n">
-        <v>23.92262907276075</v>
+        <v>23.92262907276081</v>
       </c>
       <c r="N41" t="n">
-        <v>46.0566503643805</v>
+        <v>46.05665036438062</v>
       </c>
       <c r="O41" t="n">
-        <v>68.19067165600026</v>
+        <v>68.19067165600043</v>
       </c>
       <c r="P41" t="n">
-        <v>68.19067165600026</v>
+        <v>68.19067165600043</v>
       </c>
       <c r="Q41" t="n">
-        <v>68.19067165600026</v>
+        <v>68.19067165600043</v>
       </c>
       <c r="R41" t="n">
-        <v>68.19067165600026</v>
+        <v>68.19067165600043</v>
       </c>
       <c r="S41" t="n">
-        <v>68.19067165600026</v>
+        <v>68.19067165600043</v>
       </c>
       <c r="T41" t="n">
-        <v>68.19067165600026</v>
+        <v>68.19067165600043</v>
       </c>
       <c r="U41" t="n">
-        <v>68.19067165600026</v>
+        <v>45.60724007593736</v>
       </c>
       <c r="V41" t="n">
-        <v>68.19067165600026</v>
+        <v>24.37203936120407</v>
       </c>
       <c r="W41" t="n">
-        <v>45.60724007593725</v>
+        <v>24.37203936120407</v>
       </c>
       <c r="X41" t="n">
-        <v>45.60724007593725</v>
+        <v>24.37203936120407</v>
       </c>
       <c r="Y41" t="n">
-        <v>23.02380849587423</v>
+        <v>24.37203936120407</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>14.67064583717478</v>
+        <v>44.26352589692362</v>
       </c>
       <c r="C42" t="n">
-        <v>14.67064583717478</v>
+        <v>44.26352589692362</v>
       </c>
       <c r="D42" t="n">
-        <v>14.67064583717478</v>
+        <v>24.37203936120407</v>
       </c>
       <c r="E42" t="n">
-        <v>14.67064583717478</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="F42" t="n">
-        <v>14.67064583717478</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="G42" t="n">
-        <v>14.67064583717478</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="H42" t="n">
-        <v>14.67064583717478</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="I42" t="n">
-        <v>14.67064583717478</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="J42" t="n">
-        <v>14.67064583717478</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="K42" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="L42" t="n">
-        <v>23.92262907276075</v>
+        <v>23.92262907276081</v>
       </c>
       <c r="M42" t="n">
-        <v>46.0566503643805</v>
+        <v>46.05665036438062</v>
       </c>
       <c r="N42" t="n">
-        <v>68.19067165600026</v>
+        <v>68.19067165600043</v>
       </c>
       <c r="O42" t="n">
-        <v>69.2982393152629</v>
+        <v>69.29823931526307</v>
       </c>
       <c r="P42" t="n">
-        <v>89.43038905704952</v>
+        <v>89.43038905704975</v>
       </c>
       <c r="Q42" t="n">
-        <v>66.84695747698652</v>
+        <v>89.43038905704975</v>
       </c>
       <c r="R42" t="n">
-        <v>44.2635258969235</v>
+        <v>89.43038905704975</v>
       </c>
       <c r="S42" t="n">
-        <v>37.2540774172378</v>
+        <v>89.43038905704975</v>
       </c>
       <c r="T42" t="n">
-        <v>37.2540774172378</v>
+        <v>89.43038905704975</v>
       </c>
       <c r="U42" t="n">
-        <v>37.2540774172378</v>
+        <v>66.84695747698669</v>
       </c>
       <c r="V42" t="n">
-        <v>37.2540774172378</v>
+        <v>66.84695747698669</v>
       </c>
       <c r="W42" t="n">
-        <v>14.67064583717478</v>
+        <v>44.26352589692362</v>
       </c>
       <c r="X42" t="n">
-        <v>14.67064583717478</v>
+        <v>44.26352589692362</v>
       </c>
       <c r="Y42" t="n">
-        <v>14.67064583717478</v>
+        <v>44.26352589692362</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="C43" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="D43" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="E43" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="F43" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="G43" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="H43" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="I43" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="J43" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="K43" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="L43" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="M43" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="N43" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="O43" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="P43" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="R43" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="S43" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="T43" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="U43" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="V43" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="W43" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="X43" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="Y43" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>24.372039361204</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="C44" t="n">
-        <v>24.372039361204</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="D44" t="n">
-        <v>24.372039361204</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="E44" t="n">
-        <v>24.372039361204</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="F44" t="n">
-        <v>24.372039361204</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="G44" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="H44" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="I44" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="J44" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="K44" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="L44" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="M44" t="n">
-        <v>23.92262907276075</v>
+        <v>23.92262907276081</v>
       </c>
       <c r="N44" t="n">
-        <v>46.0566503643805</v>
+        <v>46.05665036438062</v>
       </c>
       <c r="O44" t="n">
-        <v>68.19067165600026</v>
+        <v>68.19067165600043</v>
       </c>
       <c r="P44" t="n">
-        <v>45.60724007593725</v>
+        <v>68.19067165600043</v>
       </c>
       <c r="Q44" t="n">
-        <v>24.372039361204</v>
+        <v>68.19067165600043</v>
       </c>
       <c r="R44" t="n">
-        <v>24.372039361204</v>
+        <v>68.19067165600043</v>
       </c>
       <c r="S44" t="n">
-        <v>24.372039361204</v>
+        <v>68.19067165600043</v>
       </c>
       <c r="T44" t="n">
-        <v>24.372039361204</v>
+        <v>68.19067165600043</v>
       </c>
       <c r="U44" t="n">
-        <v>24.372039361204</v>
+        <v>45.60724007593736</v>
       </c>
       <c r="V44" t="n">
-        <v>24.372039361204</v>
+        <v>23.02380849587429</v>
       </c>
       <c r="W44" t="n">
-        <v>24.372039361204</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="X44" t="n">
-        <v>24.372039361204</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="Y44" t="n">
-        <v>24.372039361204</v>
+        <v>1.788607781140995</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>89.43038905704952</v>
+        <v>21.68009431686055</v>
       </c>
       <c r="C45" t="n">
-        <v>89.43038905704952</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="D45" t="n">
-        <v>89.43038905704952</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="E45" t="n">
-        <v>89.43038905704952</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="F45" t="n">
-        <v>66.84695747698652</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="G45" t="n">
-        <v>44.2635258969235</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="H45" t="n">
-        <v>21.68009431686049</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="I45" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="J45" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="K45" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="L45" t="n">
-        <v>23.92262907276075</v>
+        <v>23.0283251821903</v>
       </c>
       <c r="M45" t="n">
-        <v>46.0566503643805</v>
+        <v>45.16234647381012</v>
       </c>
       <c r="N45" t="n">
-        <v>68.19067165600026</v>
+        <v>67.29636776542993</v>
       </c>
       <c r="O45" t="n">
-        <v>69.2982393152629</v>
+        <v>89.43038905704975</v>
       </c>
       <c r="P45" t="n">
-        <v>89.43038905704952</v>
+        <v>89.43038905704975</v>
       </c>
       <c r="Q45" t="n">
-        <v>89.43038905704952</v>
+        <v>89.43038905704975</v>
       </c>
       <c r="R45" t="n">
-        <v>89.43038905704952</v>
+        <v>66.84695747698669</v>
       </c>
       <c r="S45" t="n">
-        <v>89.43038905704952</v>
+        <v>44.26352589692362</v>
       </c>
       <c r="T45" t="n">
-        <v>89.43038905704952</v>
+        <v>44.26352589692362</v>
       </c>
       <c r="U45" t="n">
-        <v>89.43038905704952</v>
+        <v>44.26352589692362</v>
       </c>
       <c r="V45" t="n">
-        <v>89.43038905704952</v>
+        <v>44.26352589692362</v>
       </c>
       <c r="W45" t="n">
-        <v>89.43038905704952</v>
+        <v>21.68009431686055</v>
       </c>
       <c r="X45" t="n">
-        <v>89.43038905704952</v>
+        <v>21.68009431686055</v>
       </c>
       <c r="Y45" t="n">
-        <v>89.43038905704952</v>
+        <v>21.68009431686055</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="C46" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="D46" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="E46" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="F46" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="G46" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="H46" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="I46" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="J46" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="K46" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="L46" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="M46" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="N46" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="O46" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="P46" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="R46" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="S46" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="T46" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="U46" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="V46" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="W46" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="X46" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
       <c r="Y46" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140995</v>
       </c>
     </row>
   </sheetData>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>374.0872403778333</v>
+        <v>351.7296431135709</v>
       </c>
       <c r="C11" t="n">
         <v>350.2054973811788</v>
@@ -23278,16 +23278,16 @@
         <v>332.7647594329636</v>
       </c>
       <c r="I11" t="n">
-        <v>170.0897909394222</v>
+        <v>187.3416054838206</v>
       </c>
       <c r="J11" t="n">
-        <v>45.84757946290117</v>
+        <v>68.2051767271636</v>
       </c>
       <c r="K11" t="n">
-        <v>17.33802747345356</v>
+        <v>39.695624737716</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>3.771034163187494</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -23305,7 +23305,7 @@
         <v>76.96287319691228</v>
       </c>
       <c r="R11" t="n">
-        <v>150.0205409231656</v>
+        <v>127.6629436589032</v>
       </c>
       <c r="S11" t="n">
         <v>195.7949718352759</v>
@@ -23317,7 +23317,7 @@
         <v>250.0391750936216</v>
       </c>
       <c r="V11" t="n">
-        <v>320.879783609152</v>
+        <v>299.856934901566</v>
       </c>
       <c r="W11" t="n">
         <v>337.8964638257669</v>
@@ -23381,31 +23381,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>25.56524180186618</v>
+        <v>47.92283906612862</v>
       </c>
       <c r="R12" t="n">
-        <v>95.61554535856638</v>
+        <v>117.9731426228288</v>
       </c>
       <c r="S12" t="n">
-        <v>158.0633577279215</v>
+        <v>177.7559293982838</v>
       </c>
       <c r="T12" t="n">
-        <v>189.6111449702571</v>
+        <v>211.9687422345195</v>
       </c>
       <c r="U12" t="n">
         <v>237.1790676246747</v>
       </c>
       <c r="V12" t="n">
-        <v>240.6489209154022</v>
+        <v>218.2913236511398</v>
       </c>
       <c r="W12" t="n">
-        <v>266.7045835770116</v>
+        <v>244.3469863127492</v>
       </c>
       <c r="X12" t="n">
-        <v>217.3129144394706</v>
+        <v>194.9553171752082</v>
       </c>
       <c r="Y12" t="n">
-        <v>223.3842861340256</v>
+        <v>203.6917144636633</v>
       </c>
     </row>
     <row r="13">
@@ -23503,7 +23503,7 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E14" t="n">
-        <v>371.4789120616362</v>
+        <v>350.4560633540502</v>
       </c>
       <c r="F14" t="n">
         <v>403.1992496400135</v>
@@ -23515,16 +23515,16 @@
         <v>332.7647594329636</v>
       </c>
       <c r="I14" t="n">
-        <v>187.3416054838207</v>
+        <v>164.9840082195582</v>
       </c>
       <c r="J14" t="n">
-        <v>68.20517672716363</v>
+        <v>68.2051767271636</v>
       </c>
       <c r="K14" t="n">
-        <v>39.69562473771606</v>
+        <v>39.695624737716</v>
       </c>
       <c r="L14" t="n">
-        <v>3.771034163187608</v>
+        <v>3.771034163187494</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -23536,16 +23536,16 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>23.43469289314015</v>
+        <v>23.43469289314004</v>
       </c>
       <c r="Q14" t="n">
-        <v>55.94002448932643</v>
+        <v>76.96287319691228</v>
       </c>
       <c r="R14" t="n">
-        <v>127.6629436589033</v>
+        <v>127.6629436589032</v>
       </c>
       <c r="S14" t="n">
-        <v>173.4373745710136</v>
+        <v>195.7949718352759</v>
       </c>
       <c r="T14" t="n">
         <v>216.3720512529981</v>
@@ -23585,22 +23585,22 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
-        <v>151.8840851250395</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>147.9997760169757</v>
+        <v>128.3072043466134</v>
       </c>
       <c r="H15" t="n">
-        <v>96.18445248051327</v>
+        <v>118.5420497447757</v>
       </c>
       <c r="I15" t="n">
-        <v>65.92298410674097</v>
+        <v>88.28058137100334</v>
       </c>
       <c r="J15" t="n">
-        <v>41.45460872960388</v>
+        <v>63.81220599386623</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>12.75321767547339</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -23618,7 +23618,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>47.92283906612865</v>
+        <v>47.92283906612862</v>
       </c>
       <c r="R15" t="n">
         <v>117.9731426228288</v>
@@ -23630,13 +23630,13 @@
         <v>211.9687422345195</v>
       </c>
       <c r="U15" t="n">
-        <v>237.1790676246747</v>
+        <v>214.8214703604123</v>
       </c>
       <c r="V15" t="n">
-        <v>240.6489209154022</v>
+        <v>218.2913236511398</v>
       </c>
       <c r="W15" t="n">
-        <v>266.7045835770116</v>
+        <v>244.3469863127492</v>
       </c>
       <c r="X15" t="n">
         <v>217.3129144394706</v>
@@ -23679,22 +23679,22 @@
         <v>97.88804345513367</v>
       </c>
       <c r="K16" t="n">
-        <v>63.65146395379575</v>
+        <v>63.65146395379573</v>
       </c>
       <c r="L16" t="n">
-        <v>44.59835013923231</v>
+        <v>44.59835013923228</v>
       </c>
       <c r="M16" t="n">
-        <v>43.0074492158559</v>
+        <v>43.00744921585587</v>
       </c>
       <c r="N16" t="n">
-        <v>32.301816477397</v>
+        <v>32.30181647739697</v>
       </c>
       <c r="O16" t="n">
-        <v>54.86824711080415</v>
+        <v>54.86824711080412</v>
       </c>
       <c r="P16" t="n">
-        <v>70.4397740687801</v>
+        <v>70.43977406878007</v>
       </c>
       <c r="Q16" t="n">
         <v>117.2709585487749</v>
@@ -23737,31 +23737,31 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D17" t="n">
-        <v>337.7721596422273</v>
+        <v>316.7493109346413</v>
       </c>
       <c r="E17" t="n">
-        <v>371.4789120616362</v>
+        <v>349.1213147973737</v>
       </c>
       <c r="F17" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G17" t="n">
-        <v>417.4460929747968</v>
+        <v>395.0884957105343</v>
       </c>
       <c r="H17" t="n">
         <v>332.7647594329636</v>
       </c>
       <c r="I17" t="n">
-        <v>166.3187567762347</v>
+        <v>187.3416054838206</v>
       </c>
       <c r="J17" t="n">
-        <v>45.84757946290125</v>
+        <v>68.2051767271636</v>
       </c>
       <c r="K17" t="n">
-        <v>17.33802747345368</v>
+        <v>39.695624737716</v>
       </c>
       <c r="L17" t="n">
-        <v>3.771034163187608</v>
+        <v>3.771034163187494</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -23773,16 +23773,16 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>23.43469289314015</v>
+        <v>23.43469289314004</v>
       </c>
       <c r="Q17" t="n">
-        <v>76.96287319691234</v>
+        <v>76.96287319691228</v>
       </c>
       <c r="R17" t="n">
-        <v>150.0205409231657</v>
+        <v>150.0205409231656</v>
       </c>
       <c r="S17" t="n">
-        <v>195.794971835276</v>
+        <v>195.7949718352759</v>
       </c>
       <c r="T17" t="n">
         <v>216.3720512529981</v>
@@ -23831,13 +23831,13 @@
         <v>118.5420497447757</v>
       </c>
       <c r="I18" t="n">
-        <v>88.28058137100335</v>
+        <v>88.28058137100334</v>
       </c>
       <c r="J18" t="n">
-        <v>63.81220599386626</v>
+        <v>41.45460872960381</v>
       </c>
       <c r="K18" t="n">
-        <v>12.75321767547345</v>
+        <v>12.75321767547339</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -23855,19 +23855,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>25.56524180186626</v>
+        <v>28.23026739576628</v>
       </c>
       <c r="R18" t="n">
-        <v>95.61554535856644</v>
+        <v>95.61554535856639</v>
       </c>
       <c r="S18" t="n">
-        <v>155.3983321340214</v>
+        <v>177.7559293982838</v>
       </c>
       <c r="T18" t="n">
-        <v>192.2761705641572</v>
+        <v>211.9687422345195</v>
       </c>
       <c r="U18" t="n">
-        <v>237.1790676246747</v>
+        <v>214.8214703604123</v>
       </c>
       <c r="V18" t="n">
         <v>240.6489209154022</v>
@@ -23916,22 +23916,22 @@
         <v>97.88804345513367</v>
       </c>
       <c r="K19" t="n">
-        <v>63.65146395379575</v>
+        <v>63.65146395379573</v>
       </c>
       <c r="L19" t="n">
-        <v>44.59835013923231</v>
+        <v>44.59835013923228</v>
       </c>
       <c r="M19" t="n">
-        <v>43.0074492158559</v>
+        <v>43.00744921585587</v>
       </c>
       <c r="N19" t="n">
-        <v>32.301816477397</v>
+        <v>32.30181647739697</v>
       </c>
       <c r="O19" t="n">
-        <v>54.86824711080415</v>
+        <v>54.86824711080412</v>
       </c>
       <c r="P19" t="n">
-        <v>70.4397740687801</v>
+        <v>70.43977406878007</v>
       </c>
       <c r="Q19" t="n">
         <v>117.2709585487749</v>
@@ -23977,28 +23977,28 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E20" t="n">
-        <v>349.1213147973738</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F20" t="n">
-        <v>380.8416523757511</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G20" t="n">
-        <v>396.4232442672109</v>
+        <v>417.4460929747968</v>
       </c>
       <c r="H20" t="n">
         <v>332.7647594329636</v>
       </c>
       <c r="I20" t="n">
-        <v>187.3416054838207</v>
+        <v>187.3416054838206</v>
       </c>
       <c r="J20" t="n">
-        <v>68.20517672716363</v>
+        <v>68.2051767271636</v>
       </c>
       <c r="K20" t="n">
-        <v>39.69562473771606</v>
+        <v>39.695624737716</v>
       </c>
       <c r="L20" t="n">
-        <v>3.771034163187608</v>
+        <v>3.771034163187494</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -24010,28 +24010,28 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>23.43469289314015</v>
+        <v>23.43469289314004</v>
       </c>
       <c r="Q20" t="n">
-        <v>76.96287319691234</v>
+        <v>76.96287319691228</v>
       </c>
       <c r="R20" t="n">
-        <v>150.0205409231657</v>
+        <v>150.0205409231656</v>
       </c>
       <c r="S20" t="n">
-        <v>195.794971835276</v>
+        <v>195.7949718352759</v>
       </c>
       <c r="T20" t="n">
         <v>216.3720512529981</v>
       </c>
       <c r="U20" t="n">
-        <v>250.0391750936216</v>
+        <v>227.6815778293592</v>
       </c>
       <c r="V20" t="n">
-        <v>320.879783609152</v>
+        <v>299.8569349015661</v>
       </c>
       <c r="W20" t="n">
-        <v>337.8964638257669</v>
+        <v>315.5388665615044</v>
       </c>
       <c r="X20" t="n">
         <v>359.7827142947061</v>
@@ -24047,13 +24047,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>154.3928971334034</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>165.1605542601035</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>139.4797434062162</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
         <v>171.8275718397997</v>
@@ -24068,13 +24068,13 @@
         <v>118.5420497447757</v>
       </c>
       <c r="I21" t="n">
-        <v>88.28058137100335</v>
+        <v>88.28058137100334</v>
       </c>
       <c r="J21" t="n">
-        <v>63.81220599386626</v>
+        <v>63.81220599386623</v>
       </c>
       <c r="K21" t="n">
-        <v>12.75321767547345</v>
+        <v>12.75321767547339</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -24092,13 +24092,13 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>47.92283906612865</v>
+        <v>25.5652418018662</v>
       </c>
       <c r="R21" t="n">
-        <v>117.9731426228288</v>
+        <v>95.61554535856639</v>
       </c>
       <c r="S21" t="n">
-        <v>177.7559293982838</v>
+        <v>158.0633577279215</v>
       </c>
       <c r="T21" t="n">
         <v>211.9687422345195</v>
@@ -24110,10 +24110,10 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
-        <v>266.7045835770116</v>
+        <v>244.3469863127492</v>
       </c>
       <c r="X21" t="n">
-        <v>194.9553171752082</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
         <v>223.3842861340256</v>
@@ -24153,22 +24153,22 @@
         <v>97.88804345513367</v>
       </c>
       <c r="K22" t="n">
-        <v>63.65146395379575</v>
+        <v>63.65146395379573</v>
       </c>
       <c r="L22" t="n">
-        <v>44.59835013923231</v>
+        <v>44.59835013923228</v>
       </c>
       <c r="M22" t="n">
-        <v>43.0074492158559</v>
+        <v>43.00744921585587</v>
       </c>
       <c r="N22" t="n">
-        <v>32.301816477397</v>
+        <v>32.30181647739697</v>
       </c>
       <c r="O22" t="n">
-        <v>54.86824711080415</v>
+        <v>54.86824711080412</v>
       </c>
       <c r="P22" t="n">
-        <v>70.4397740687801</v>
+        <v>70.43977406878007</v>
       </c>
       <c r="Q22" t="n">
         <v>117.2709585487749</v>
@@ -24211,7 +24211,7 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D23" t="n">
-        <v>337.7721596422273</v>
+        <v>302.9411782322941</v>
       </c>
       <c r="E23" t="n">
         <v>371.4789120616362</v>
@@ -24220,22 +24220,22 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G23" t="n">
-        <v>382.6151115648637</v>
+        <v>417.4460929747968</v>
       </c>
       <c r="H23" t="n">
         <v>332.7647594329636</v>
       </c>
       <c r="I23" t="n">
-        <v>187.3416054838207</v>
+        <v>166.8151974652324</v>
       </c>
       <c r="J23" t="n">
-        <v>68.20517672716363</v>
+        <v>68.2051767271636</v>
       </c>
       <c r="K23" t="n">
-        <v>39.69562473771606</v>
+        <v>39.695624737716</v>
       </c>
       <c r="L23" t="n">
-        <v>3.771034163187608</v>
+        <v>3.771034163187494</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -24247,22 +24247,22 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>23.43469289314015</v>
+        <v>23.43469289314004</v>
       </c>
       <c r="Q23" t="n">
-        <v>42.13189178697925</v>
+        <v>76.96287319691228</v>
       </c>
       <c r="R23" t="n">
-        <v>150.0205409231657</v>
+        <v>150.0205409231656</v>
       </c>
       <c r="S23" t="n">
-        <v>195.794971835276</v>
+        <v>195.7949718352759</v>
       </c>
       <c r="T23" t="n">
         <v>216.3720512529981</v>
       </c>
       <c r="U23" t="n">
-        <v>250.0391750936216</v>
+        <v>215.2081936836884</v>
       </c>
       <c r="V23" t="n">
         <v>320.879783609152</v>
@@ -24271,7 +24271,7 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X23" t="n">
-        <v>339.2563062761179</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y23" t="n">
         <v>382.2855674184499</v>
@@ -24287,31 +24287,31 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
-        <v>187.5181515243659</v>
+        <v>152.6871701144328</v>
       </c>
       <c r="D24" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>136.9965904298666</v>
+        <v>136.9965904298665</v>
       </c>
       <c r="F24" t="n">
-        <v>123.9924577099953</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>113.1687946070427</v>
+        <v>147.9997760169757</v>
       </c>
       <c r="H24" t="n">
         <v>118.5420497447757</v>
       </c>
       <c r="I24" t="n">
-        <v>88.28058137100335</v>
+        <v>88.28058137100334</v>
       </c>
       <c r="J24" t="n">
-        <v>63.81220599386626</v>
+        <v>63.81220599386623</v>
       </c>
       <c r="K24" t="n">
-        <v>12.75321767547345</v>
+        <v>12.75321767547339</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -24329,13 +24329,13 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>47.92283906612865</v>
+        <v>47.92283906612862</v>
       </c>
       <c r="R24" t="n">
         <v>117.9731426228288</v>
       </c>
       <c r="S24" t="n">
-        <v>177.7559293982838</v>
+        <v>142.9249479883507</v>
       </c>
       <c r="T24" t="n">
         <v>211.9687422345195</v>
@@ -24347,10 +24347,10 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
-        <v>236.0254551511426</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>217.3129144394706</v>
+        <v>186.6337860136015</v>
       </c>
       <c r="Y24" t="n">
         <v>223.3842861340256</v>
@@ -24390,22 +24390,22 @@
         <v>97.88804345513367</v>
       </c>
       <c r="K25" t="n">
-        <v>63.65146395379575</v>
+        <v>63.65146395379573</v>
       </c>
       <c r="L25" t="n">
-        <v>44.59835013923231</v>
+        <v>44.59835013923228</v>
       </c>
       <c r="M25" t="n">
-        <v>43.0074492158559</v>
+        <v>43.00744921585587</v>
       </c>
       <c r="N25" t="n">
-        <v>32.301816477397</v>
+        <v>32.30181647739697</v>
       </c>
       <c r="O25" t="n">
-        <v>54.86824711080415</v>
+        <v>54.86824711080412</v>
       </c>
       <c r="P25" t="n">
-        <v>70.4397740687801</v>
+        <v>70.43977406878007</v>
       </c>
       <c r="Q25" t="n">
         <v>117.2709585487749</v>
@@ -24445,13 +24445,13 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C26" t="n">
-        <v>315.3745159712457</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D26" t="n">
         <v>337.7721596422273</v>
       </c>
       <c r="E26" t="n">
-        <v>371.4789120616362</v>
+        <v>336.647930651703</v>
       </c>
       <c r="F26" t="n">
         <v>403.1992496400135</v>
@@ -24463,16 +24463,16 @@
         <v>332.7647594329636</v>
       </c>
       <c r="I26" t="n">
-        <v>187.3416054838207</v>
+        <v>187.3416054838206</v>
       </c>
       <c r="J26" t="n">
-        <v>47.67876870857542</v>
+        <v>68.2051767271636</v>
       </c>
       <c r="K26" t="n">
-        <v>39.69562473771606</v>
+        <v>39.695624737716</v>
       </c>
       <c r="L26" t="n">
-        <v>3.771034163187608</v>
+        <v>3.771034163187494</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -24484,16 +24484,16 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>23.43469289314015</v>
+        <v>2.908284874551764</v>
       </c>
       <c r="Q26" t="n">
-        <v>76.96287319691234</v>
+        <v>42.13189178697914</v>
       </c>
       <c r="R26" t="n">
-        <v>150.0205409231657</v>
+        <v>150.0205409231656</v>
       </c>
       <c r="S26" t="n">
-        <v>195.794971835276</v>
+        <v>195.7949718352759</v>
       </c>
       <c r="T26" t="n">
         <v>216.3720512529981</v>
@@ -24511,7 +24511,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y26" t="n">
-        <v>347.4545860085168</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="27">
@@ -24521,34 +24521,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>176.7504943976657</v>
+        <v>141.9195129877326</v>
       </c>
       <c r="C27" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
-        <v>159.1723150765785</v>
+        <v>128.4931866507094</v>
       </c>
       <c r="E27" t="n">
-        <v>171.8275718397997</v>
+        <v>136.9965904298665</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>123.9924577099952</v>
       </c>
       <c r="G27" t="n">
-        <v>113.1687946070427</v>
+        <v>147.9997760169757</v>
       </c>
       <c r="H27" t="n">
         <v>118.5420497447757</v>
       </c>
       <c r="I27" t="n">
-        <v>88.28058137100335</v>
+        <v>88.28058137100334</v>
       </c>
       <c r="J27" t="n">
-        <v>28.98122458393317</v>
+        <v>63.81220599386623</v>
       </c>
       <c r="K27" t="n">
-        <v>12.75321767547345</v>
+        <v>12.75321767547339</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -24566,7 +24566,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>47.92283906612865</v>
+        <v>47.92283906612862</v>
       </c>
       <c r="R27" t="n">
         <v>117.9731426228288</v>
@@ -24578,13 +24578,13 @@
         <v>211.9687422345195</v>
       </c>
       <c r="U27" t="n">
-        <v>206.4999391988057</v>
+        <v>237.1790676246747</v>
       </c>
       <c r="V27" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
-        <v>231.8736021670785</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
         <v>217.3129144394706</v>
@@ -24627,22 +24627,22 @@
         <v>97.88804345513367</v>
       </c>
       <c r="K28" t="n">
-        <v>63.65146395379575</v>
+        <v>63.65146395379573</v>
       </c>
       <c r="L28" t="n">
-        <v>44.59835013923231</v>
+        <v>44.59835013923228</v>
       </c>
       <c r="M28" t="n">
-        <v>43.0074492158559</v>
+        <v>43.00744921585587</v>
       </c>
       <c r="N28" t="n">
-        <v>32.301816477397</v>
+        <v>32.30181647739697</v>
       </c>
       <c r="O28" t="n">
-        <v>54.86824711080415</v>
+        <v>54.86824711080412</v>
       </c>
       <c r="P28" t="n">
-        <v>70.4397740687801</v>
+        <v>70.43977406878007</v>
       </c>
       <c r="Q28" t="n">
         <v>117.2709585487749</v>
@@ -24700,16 +24700,16 @@
         <v>332.7647594329636</v>
       </c>
       <c r="I29" t="n">
-        <v>187.3416054838207</v>
+        <v>187.3416054838206</v>
       </c>
       <c r="J29" t="n">
-        <v>68.20517672716363</v>
+        <v>68.2051767271636</v>
       </c>
       <c r="K29" t="n">
-        <v>39.69562473771606</v>
+        <v>39.695624737716</v>
       </c>
       <c r="L29" t="n">
-        <v>3.771034163187608</v>
+        <v>3.771034163187494</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -24721,16 +24721,16 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>23.43469289314004</v>
       </c>
       <c r="Q29" t="n">
-        <v>45.04017666153118</v>
+        <v>76.96287319691228</v>
       </c>
       <c r="R29" t="n">
-        <v>115.1895595132326</v>
+        <v>115.1895595132325</v>
       </c>
       <c r="S29" t="n">
-        <v>195.794971835276</v>
+        <v>160.9639904253428</v>
       </c>
       <c r="T29" t="n">
         <v>216.3720512529981</v>
@@ -24742,7 +24742,7 @@
         <v>320.879783609152</v>
       </c>
       <c r="W29" t="n">
-        <v>337.8964638257669</v>
+        <v>317.3700558071786</v>
       </c>
       <c r="X29" t="n">
         <v>359.7827142947061</v>
@@ -24761,7 +24761,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>152.6871701144328</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
         <v>159.1723150765785</v>
@@ -24770,7 +24770,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>123.9924577099953</v>
+        <v>123.9924577099952</v>
       </c>
       <c r="G30" t="n">
         <v>147.9997760169757</v>
@@ -24779,13 +24779,13 @@
         <v>118.5420497447757</v>
       </c>
       <c r="I30" t="n">
-        <v>88.28058137100335</v>
+        <v>88.28058137100334</v>
       </c>
       <c r="J30" t="n">
-        <v>63.81220599386626</v>
+        <v>63.81220599386623</v>
       </c>
       <c r="K30" t="n">
-        <v>12.75321767547345</v>
+        <v>12.75321767547339</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -24803,19 +24803,19 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>47.92283906612865</v>
+        <v>13.09185765619547</v>
       </c>
       <c r="R30" t="n">
-        <v>117.9731426228288</v>
+        <v>83.14216121289567</v>
       </c>
       <c r="S30" t="n">
-        <v>177.7559293982838</v>
+        <v>147.0768009724147</v>
       </c>
       <c r="T30" t="n">
-        <v>177.1377608245865</v>
+        <v>211.9687422345195</v>
       </c>
       <c r="U30" t="n">
-        <v>206.4999391988057</v>
+        <v>237.1790676246747</v>
       </c>
       <c r="V30" t="n">
         <v>240.6489209154022</v>
@@ -24864,22 +24864,22 @@
         <v>97.88804345513367</v>
       </c>
       <c r="K31" t="n">
-        <v>63.65146395379575</v>
+        <v>63.65146395379573</v>
       </c>
       <c r="L31" t="n">
-        <v>44.59835013923231</v>
+        <v>44.59835013923228</v>
       </c>
       <c r="M31" t="n">
-        <v>43.0074492158559</v>
+        <v>43.00744921585587</v>
       </c>
       <c r="N31" t="n">
-        <v>32.301816477397</v>
+        <v>32.30181647739697</v>
       </c>
       <c r="O31" t="n">
-        <v>54.86824711080415</v>
+        <v>54.86824711080412</v>
       </c>
       <c r="P31" t="n">
-        <v>70.4397740687801</v>
+        <v>70.43977406878007</v>
       </c>
       <c r="Q31" t="n">
         <v>117.2709585487749</v>
@@ -24928,7 +24928,7 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F32" t="n">
-        <v>371.2765531046323</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G32" t="n">
         <v>417.4460929747968</v>
@@ -24937,16 +24937,16 @@
         <v>332.7647594329636</v>
       </c>
       <c r="I32" t="n">
-        <v>187.3416054838207</v>
+        <v>187.3416054838206</v>
       </c>
       <c r="J32" t="n">
-        <v>33.37419531723054</v>
+        <v>68.2051767271636</v>
       </c>
       <c r="K32" t="n">
-        <v>39.69562473771606</v>
+        <v>39.695624737716</v>
       </c>
       <c r="L32" t="n">
-        <v>3.771034163187608</v>
+        <v>3.771034163187494</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -24958,19 +24958,19 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>23.43469289314004</v>
       </c>
       <c r="Q32" t="n">
-        <v>76.96287319691234</v>
+        <v>76.96287319691228</v>
       </c>
       <c r="R32" t="n">
-        <v>150.0205409231657</v>
+        <v>115.1895595132325</v>
       </c>
       <c r="S32" t="n">
-        <v>195.794971835276</v>
+        <v>195.7949718352759</v>
       </c>
       <c r="T32" t="n">
-        <v>216.3720512529981</v>
+        <v>181.541069843065</v>
       </c>
       <c r="U32" t="n">
         <v>250.0391750936216</v>
@@ -24982,7 +24982,7 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X32" t="n">
-        <v>359.7827142947061</v>
+        <v>339.2563062761179</v>
       </c>
       <c r="Y32" t="n">
         <v>382.2855674184499</v>
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>146.0713659717967</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
         <v>187.5181515243659</v>
@@ -25016,13 +25016,13 @@
         <v>118.5420497447757</v>
       </c>
       <c r="I33" t="n">
-        <v>88.28058137100335</v>
+        <v>88.28058137100334</v>
       </c>
       <c r="J33" t="n">
-        <v>63.81220599386626</v>
+        <v>63.81220599386623</v>
       </c>
       <c r="K33" t="n">
-        <v>12.75321767547345</v>
+        <v>12.75321767547339</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -25040,7 +25040,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>47.92283906612865</v>
+        <v>47.92283906612862</v>
       </c>
       <c r="R33" t="n">
         <v>117.9731426228288</v>
@@ -25049,22 +25049,22 @@
         <v>177.7559293982838</v>
       </c>
       <c r="T33" t="n">
-        <v>211.9687422345195</v>
+        <v>181.2896138086504</v>
       </c>
       <c r="U33" t="n">
-        <v>237.1790676246747</v>
+        <v>202.3480862147416</v>
       </c>
       <c r="V33" t="n">
-        <v>240.6489209154022</v>
+        <v>205.8179395054691</v>
       </c>
       <c r="W33" t="n">
-        <v>231.8736021670785</v>
+        <v>231.8736021670784</v>
       </c>
       <c r="X33" t="n">
-        <v>182.4819330295375</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y33" t="n">
-        <v>188.5533047240925</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="34">
@@ -25101,22 +25101,22 @@
         <v>97.88804345513367</v>
       </c>
       <c r="K34" t="n">
-        <v>63.65146395379575</v>
+        <v>63.65146395379573</v>
       </c>
       <c r="L34" t="n">
-        <v>44.59835013923231</v>
+        <v>44.59835013923228</v>
       </c>
       <c r="M34" t="n">
-        <v>43.0074492158559</v>
+        <v>43.00744921585587</v>
       </c>
       <c r="N34" t="n">
-        <v>32.301816477397</v>
+        <v>32.30181647739697</v>
       </c>
       <c r="O34" t="n">
-        <v>54.86824711080415</v>
+        <v>54.86824711080412</v>
       </c>
       <c r="P34" t="n">
-        <v>70.4397740687801</v>
+        <v>70.43977406878007</v>
       </c>
       <c r="Q34" t="n">
         <v>117.2709585487749</v>
@@ -25156,7 +25156,7 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C35" t="n">
-        <v>350.2054973811788</v>
+        <v>329.1826486735928</v>
       </c>
       <c r="D35" t="n">
         <v>337.7721596422273</v>
@@ -25174,16 +25174,16 @@
         <v>332.7647594329636</v>
       </c>
       <c r="I35" t="n">
-        <v>187.3416054838207</v>
+        <v>187.3416054838206</v>
       </c>
       <c r="J35" t="n">
-        <v>68.20517672716363</v>
+        <v>68.2051767271636</v>
       </c>
       <c r="K35" t="n">
-        <v>39.69562473771606</v>
+        <v>39.695624737716</v>
       </c>
       <c r="L35" t="n">
-        <v>3.771034163187608</v>
+        <v>3.771034163187494</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -25195,22 +25195,22 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>1.077095628877771</v>
+        <v>23.43469289314004</v>
       </c>
       <c r="Q35" t="n">
-        <v>55.94002448932642</v>
+        <v>76.96287319691228</v>
       </c>
       <c r="R35" t="n">
-        <v>150.0205409231657</v>
+        <v>150.0205409231656</v>
       </c>
       <c r="S35" t="n">
-        <v>195.794971835276</v>
+        <v>195.7949718352759</v>
       </c>
       <c r="T35" t="n">
         <v>216.3720512529981</v>
       </c>
       <c r="U35" t="n">
-        <v>227.6815778293592</v>
+        <v>227.6815778293593</v>
       </c>
       <c r="V35" t="n">
         <v>320.879783609152</v>
@@ -25222,7 +25222,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y35" t="n">
-        <v>382.2855674184499</v>
+        <v>359.9279701541876</v>
       </c>
     </row>
     <row r="36">
@@ -25238,28 +25238,28 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>136.8147178123162</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>152.1350001694375</v>
       </c>
       <c r="F36" t="n">
-        <v>136.465841855666</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
         <v>125.6421787527134</v>
       </c>
       <c r="H36" t="n">
-        <v>96.18445248051327</v>
+        <v>118.5420497447757</v>
       </c>
       <c r="I36" t="n">
-        <v>68.58800970064105</v>
+        <v>88.28058137100334</v>
       </c>
       <c r="J36" t="n">
-        <v>63.81220599386626</v>
+        <v>63.81220599386623</v>
       </c>
       <c r="K36" t="n">
-        <v>12.75321767547345</v>
+        <v>12.75321767547339</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -25277,7 +25277,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>47.92283906612865</v>
+        <v>47.92283906612862</v>
       </c>
       <c r="R36" t="n">
         <v>117.9731426228288</v>
@@ -25295,7 +25295,7 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>266.7045835770116</v>
+        <v>244.3469863127493</v>
       </c>
       <c r="X36" t="n">
         <v>217.3129144394706</v>
@@ -25338,22 +25338,22 @@
         <v>97.88804345513367</v>
       </c>
       <c r="K37" t="n">
-        <v>63.65146395379575</v>
+        <v>63.65146395379573</v>
       </c>
       <c r="L37" t="n">
-        <v>44.59835013923231</v>
+        <v>44.59835013923228</v>
       </c>
       <c r="M37" t="n">
-        <v>43.0074492158559</v>
+        <v>43.00744921585587</v>
       </c>
       <c r="N37" t="n">
-        <v>32.301816477397</v>
+        <v>32.30181647739697</v>
       </c>
       <c r="O37" t="n">
-        <v>54.86824711080415</v>
+        <v>54.86824711080412</v>
       </c>
       <c r="P37" t="n">
-        <v>70.4397740687801</v>
+        <v>70.43977406878007</v>
       </c>
       <c r="Q37" t="n">
         <v>117.2709585487749</v>
@@ -25402,25 +25402,25 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F38" t="n">
-        <v>380.8416523757511</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G38" t="n">
-        <v>395.0884957105344</v>
+        <v>417.4460929747968</v>
       </c>
       <c r="H38" t="n">
-        <v>311.7419107253777</v>
+        <v>332.7647594329636</v>
       </c>
       <c r="I38" t="n">
-        <v>187.3416054838207</v>
+        <v>187.3416054838206</v>
       </c>
       <c r="J38" t="n">
-        <v>68.20517672716363</v>
+        <v>68.2051767271636</v>
       </c>
       <c r="K38" t="n">
-        <v>39.69562473771606</v>
+        <v>39.695624737716</v>
       </c>
       <c r="L38" t="n">
-        <v>3.771034163187608</v>
+        <v>3.771034163187494</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -25432,16 +25432,16 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>23.43469289314015</v>
+        <v>23.43469289314004</v>
       </c>
       <c r="Q38" t="n">
-        <v>76.96287319691234</v>
+        <v>54.60527593264985</v>
       </c>
       <c r="R38" t="n">
-        <v>150.0205409231657</v>
+        <v>150.0205409231656</v>
       </c>
       <c r="S38" t="n">
-        <v>195.794971835276</v>
+        <v>195.7949718352759</v>
       </c>
       <c r="T38" t="n">
         <v>216.3720512529981</v>
@@ -25453,13 +25453,13 @@
         <v>320.879783609152</v>
       </c>
       <c r="W38" t="n">
-        <v>337.8964638257669</v>
+        <v>315.5388665615044</v>
       </c>
       <c r="X38" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y38" t="n">
-        <v>382.2855674184499</v>
+        <v>361.2627187108639</v>
       </c>
     </row>
     <row r="39">
@@ -25472,16 +25472,16 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>165.1605542601035</v>
       </c>
       <c r="D39" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>152.1350001694373</v>
       </c>
       <c r="F39" t="n">
-        <v>136.465841855666</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
         <v>147.9997760169757</v>
@@ -25490,13 +25490,13 @@
         <v>118.5420497447757</v>
       </c>
       <c r="I39" t="n">
-        <v>88.28058137100335</v>
+        <v>88.28058137100334</v>
       </c>
       <c r="J39" t="n">
-        <v>63.81220599386626</v>
+        <v>63.81220599386623</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>12.75321767547339</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -25514,10 +25514,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>40.9834850712398</v>
+        <v>47.92283906612862</v>
       </c>
       <c r="R39" t="n">
-        <v>95.61554535856644</v>
+        <v>117.9731426228288</v>
       </c>
       <c r="S39" t="n">
         <v>177.7559293982838</v>
@@ -25532,7 +25532,7 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>266.7045835770116</v>
+        <v>244.3469863127492</v>
       </c>
       <c r="X39" t="n">
         <v>217.3129144394706</v>
@@ -25575,22 +25575,22 @@
         <v>97.88804345513367</v>
       </c>
       <c r="K40" t="n">
-        <v>63.65146395379575</v>
+        <v>63.65146395379573</v>
       </c>
       <c r="L40" t="n">
-        <v>44.59835013923231</v>
+        <v>44.59835013923228</v>
       </c>
       <c r="M40" t="n">
-        <v>43.0074492158559</v>
+        <v>43.00744921585587</v>
       </c>
       <c r="N40" t="n">
-        <v>32.301816477397</v>
+        <v>32.30181647739697</v>
       </c>
       <c r="O40" t="n">
-        <v>54.86824711080415</v>
+        <v>54.86824711080412</v>
       </c>
       <c r="P40" t="n">
-        <v>70.4397740687801</v>
+        <v>70.43977406878007</v>
       </c>
       <c r="Q40" t="n">
         <v>117.2709585487749</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>353.0643916702474</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C41" t="n">
         <v>350.2054973811788</v>
@@ -25645,19 +25645,19 @@
         <v>417.4460929747968</v>
       </c>
       <c r="H41" t="n">
-        <v>332.7647594329636</v>
+        <v>310.4071621687012</v>
       </c>
       <c r="I41" t="n">
-        <v>187.3416054838207</v>
+        <v>187.3416054838206</v>
       </c>
       <c r="J41" t="n">
-        <v>68.20517672716363</v>
+        <v>68.2051767271636</v>
       </c>
       <c r="K41" t="n">
-        <v>39.69562473771606</v>
+        <v>39.695624737716</v>
       </c>
       <c r="L41" t="n">
-        <v>3.771034163187608</v>
+        <v>3.771034163187494</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -25669,34 +25669,34 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>23.43469289314015</v>
+        <v>23.43469289314004</v>
       </c>
       <c r="Q41" t="n">
-        <v>76.96287319691234</v>
+        <v>76.96287319691228</v>
       </c>
       <c r="R41" t="n">
-        <v>150.0205409231657</v>
+        <v>150.0205409231656</v>
       </c>
       <c r="S41" t="n">
-        <v>195.794971835276</v>
+        <v>195.7949718352759</v>
       </c>
       <c r="T41" t="n">
         <v>216.3720512529981</v>
       </c>
       <c r="U41" t="n">
-        <v>250.0391750936216</v>
+        <v>227.6815778293592</v>
       </c>
       <c r="V41" t="n">
-        <v>320.879783609152</v>
+        <v>299.856934901566</v>
       </c>
       <c r="W41" t="n">
-        <v>315.5388665615045</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X41" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y41" t="n">
-        <v>359.9279701541875</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="42">
@@ -25712,10 +25712,10 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
-        <v>159.1723150765785</v>
+        <v>139.4797434062162</v>
       </c>
       <c r="E42" t="n">
-        <v>171.8275718397997</v>
+        <v>149.4699745755372</v>
       </c>
       <c r="F42" t="n">
         <v>158.8234391199283</v>
@@ -25727,13 +25727,13 @@
         <v>118.5420497447757</v>
       </c>
       <c r="I42" t="n">
-        <v>88.28058137100335</v>
+        <v>88.28058137100334</v>
       </c>
       <c r="J42" t="n">
-        <v>63.81220599386626</v>
+        <v>63.81220599386623</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>12.75321767547339</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -25751,19 +25751,19 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>25.56524180186626</v>
+        <v>47.92283906612862</v>
       </c>
       <c r="R42" t="n">
-        <v>95.61554535856644</v>
+        <v>117.9731426228288</v>
       </c>
       <c r="S42" t="n">
-        <v>170.816575403395</v>
+        <v>177.7559293982838</v>
       </c>
       <c r="T42" t="n">
         <v>211.9687422345195</v>
       </c>
       <c r="U42" t="n">
-        <v>237.1790676246747</v>
+        <v>214.8214703604123</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
@@ -25812,22 +25812,22 @@
         <v>97.88804345513367</v>
       </c>
       <c r="K43" t="n">
-        <v>63.65146395379575</v>
+        <v>63.65146395379573</v>
       </c>
       <c r="L43" t="n">
-        <v>44.59835013923231</v>
+        <v>44.59835013923228</v>
       </c>
       <c r="M43" t="n">
-        <v>43.0074492158559</v>
+        <v>43.00744921585587</v>
       </c>
       <c r="N43" t="n">
-        <v>32.301816477397</v>
+        <v>32.30181647739697</v>
       </c>
       <c r="O43" t="n">
-        <v>54.86824711080415</v>
+        <v>54.86824711080412</v>
       </c>
       <c r="P43" t="n">
-        <v>70.4397740687801</v>
+        <v>70.43977406878007</v>
       </c>
       <c r="Q43" t="n">
         <v>117.2709585487749</v>
@@ -25879,22 +25879,22 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G44" t="n">
-        <v>395.0884957105344</v>
+        <v>417.4460929747968</v>
       </c>
       <c r="H44" t="n">
         <v>332.7647594329636</v>
       </c>
       <c r="I44" t="n">
-        <v>187.3416054838207</v>
+        <v>187.3416054838206</v>
       </c>
       <c r="J44" t="n">
-        <v>68.20517672716363</v>
+        <v>68.2051767271636</v>
       </c>
       <c r="K44" t="n">
-        <v>39.69562473771606</v>
+        <v>39.695624737716</v>
       </c>
       <c r="L44" t="n">
-        <v>3.771034163187608</v>
+        <v>3.771034163187494</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -25906,28 +25906,28 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>1.077095628877771</v>
+        <v>23.43469289314004</v>
       </c>
       <c r="Q44" t="n">
-        <v>55.94002448932643</v>
+        <v>76.96287319691228</v>
       </c>
       <c r="R44" t="n">
-        <v>150.0205409231657</v>
+        <v>150.0205409231656</v>
       </c>
       <c r="S44" t="n">
-        <v>195.794971835276</v>
+        <v>195.7949718352759</v>
       </c>
       <c r="T44" t="n">
         <v>216.3720512529981</v>
       </c>
       <c r="U44" t="n">
-        <v>250.0391750936216</v>
+        <v>227.6815778293592</v>
       </c>
       <c r="V44" t="n">
-        <v>320.879783609152</v>
+        <v>298.5221863448896</v>
       </c>
       <c r="W44" t="n">
-        <v>337.8964638257669</v>
+        <v>316.8736151181809</v>
       </c>
       <c r="X44" t="n">
         <v>359.7827142947061</v>
@@ -25946,7 +25946,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>187.5181515243659</v>
+        <v>167.8255798540036</v>
       </c>
       <c r="D45" t="n">
         <v>159.1723150765785</v>
@@ -25955,22 +25955,22 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>136.465841855666</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>125.6421787527134</v>
+        <v>147.9997760169757</v>
       </c>
       <c r="H45" t="n">
-        <v>96.18445248051327</v>
+        <v>118.5420497447757</v>
       </c>
       <c r="I45" t="n">
-        <v>68.58800970064104</v>
+        <v>88.28058137100334</v>
       </c>
       <c r="J45" t="n">
-        <v>63.81220599386626</v>
+        <v>63.81220599386623</v>
       </c>
       <c r="K45" t="n">
-        <v>12.75321767547345</v>
+        <v>12.75321767547339</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -25988,13 +25988,13 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>47.92283906612865</v>
+        <v>47.92283906612862</v>
       </c>
       <c r="R45" t="n">
-        <v>117.9731426228288</v>
+        <v>95.61554535856638</v>
       </c>
       <c r="S45" t="n">
-        <v>177.7559293982838</v>
+        <v>155.3983321340214</v>
       </c>
       <c r="T45" t="n">
         <v>211.9687422345195</v>
@@ -26006,7 +26006,7 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>266.7045835770116</v>
+        <v>244.3469863127492</v>
       </c>
       <c r="X45" t="n">
         <v>217.3129144394706</v>
@@ -26049,22 +26049,22 @@
         <v>97.88804345513367</v>
       </c>
       <c r="K46" t="n">
-        <v>63.65146395379575</v>
+        <v>63.65146395379573</v>
       </c>
       <c r="L46" t="n">
-        <v>44.59835013923231</v>
+        <v>44.59835013923228</v>
       </c>
       <c r="M46" t="n">
-        <v>43.0074492158559</v>
+        <v>43.00744921585587</v>
       </c>
       <c r="N46" t="n">
-        <v>32.301816477397</v>
+        <v>32.30181647739697</v>
       </c>
       <c r="O46" t="n">
-        <v>54.86824711080415</v>
+        <v>54.86824711080412</v>
       </c>
       <c r="P46" t="n">
-        <v>70.4397740687801</v>
+        <v>70.43977406878007</v>
       </c>
       <c r="Q46" t="n">
         <v>117.2709585487749</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>341614.8885162551</v>
+        <v>341614.8885162552</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>341614.8885162551</v>
+        <v>341614.8885162552</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>341614.8885162552</v>
+        <v>341614.8885162551</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>346813.1862272373</v>
+        <v>346813.1862272374</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>346813.1862272373</v>
+        <v>346813.1862272375</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>346813.1862272373</v>
+        <v>346813.1862272375</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>346813.1862272373</v>
+        <v>346813.1862272374</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>341614.8885162551</v>
+        <v>341614.8885162552</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>341614.8885162551</v>
+        <v>341614.8885162552</v>
       </c>
     </row>
   </sheetData>
@@ -26325,19 +26325,19 @@
         <v>118251.3075633191</v>
       </c>
       <c r="F2" t="n">
-        <v>118251.307563319</v>
+        <v>118251.3075633191</v>
       </c>
       <c r="G2" t="n">
-        <v>118251.307563319</v>
+        <v>118251.3075633191</v>
       </c>
       <c r="H2" t="n">
-        <v>118251.307563319</v>
+        <v>118251.3075633191</v>
       </c>
       <c r="I2" t="n">
         <v>120050.7183094283</v>
       </c>
       <c r="J2" t="n">
-        <v>120050.7183094282</v>
+        <v>120050.7183094283</v>
       </c>
       <c r="K2" t="n">
         <v>120050.7183094283</v>
@@ -26349,13 +26349,13 @@
         <v>118251.3075633191</v>
       </c>
       <c r="N2" t="n">
-        <v>118251.307563319</v>
+        <v>118251.3075633191</v>
       </c>
       <c r="O2" t="n">
         <v>118251.3075633191</v>
       </c>
       <c r="P2" t="n">
-        <v>118251.307563319</v>
+        <v>118251.3075633191</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3316.9347854009</v>
+        <v>3316.934785400905</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2463.185446005534</v>
+        <v>2463.185446005523</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,37 +26429,37 @@
         <v>13.63881183414749</v>
       </c>
       <c r="F4" t="n">
-        <v>13.63881183414745</v>
+        <v>13.63881183414748</v>
       </c>
       <c r="G4" t="n">
-        <v>13.63881183414745</v>
+        <v>13.63881183414748</v>
       </c>
       <c r="H4" t="n">
-        <v>13.63881183414745</v>
+        <v>13.63881183414748</v>
       </c>
       <c r="I4" t="n">
-        <v>19.75863207735125</v>
+        <v>19.75863207735128</v>
       </c>
       <c r="J4" t="n">
-        <v>19.75863207735125</v>
+        <v>19.75863207735128</v>
       </c>
       <c r="K4" t="n">
-        <v>19.75863207735125</v>
+        <v>19.75863207735128</v>
       </c>
       <c r="L4" t="n">
-        <v>19.75863207735125</v>
+        <v>19.75863207735128</v>
       </c>
       <c r="M4" t="n">
-        <v>13.63881183414745</v>
+        <v>13.63881183414742</v>
       </c>
       <c r="N4" t="n">
-        <v>13.63881183414745</v>
+        <v>13.63881183414749</v>
       </c>
       <c r="O4" t="n">
-        <v>13.63881183414745</v>
+        <v>13.63881183414749</v>
       </c>
       <c r="P4" t="n">
-        <v>13.63881183414745</v>
+        <v>13.63881183414749</v>
       </c>
     </row>
     <row r="5">
@@ -26481,37 +26481,37 @@
         <v>11113.77984064365</v>
       </c>
       <c r="F5" t="n">
-        <v>11113.77984064364</v>
+        <v>11113.77984064365</v>
       </c>
       <c r="G5" t="n">
-        <v>11113.77984064364</v>
+        <v>11113.77984064365</v>
       </c>
       <c r="H5" t="n">
-        <v>11113.77984064364</v>
+        <v>11113.77984064365</v>
       </c>
       <c r="I5" t="n">
-        <v>11872.16159670042</v>
+        <v>11872.16159670043</v>
       </c>
       <c r="J5" t="n">
-        <v>11872.16159670042</v>
+        <v>11872.16159670043</v>
       </c>
       <c r="K5" t="n">
-        <v>11872.16159670042</v>
+        <v>11872.16159670043</v>
       </c>
       <c r="L5" t="n">
-        <v>11872.16159670042</v>
+        <v>11872.16159670043</v>
       </c>
       <c r="M5" t="n">
         <v>11113.77984064364</v>
       </c>
       <c r="N5" t="n">
-        <v>11113.77984064364</v>
+        <v>11113.77984064365</v>
       </c>
       <c r="O5" t="n">
-        <v>11113.77984064364</v>
+        <v>11113.77984064365</v>
       </c>
       <c r="P5" t="n">
-        <v>11113.77984064364</v>
+        <v>11113.77984064365</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-292250.9968360811</v>
+        <v>-308897.4473883871</v>
       </c>
       <c r="C6" t="n">
-        <v>56519.33945529119</v>
+        <v>39872.88890298522</v>
       </c>
       <c r="D6" t="n">
-        <v>38359.46023283012</v>
+        <v>22082.02722344903</v>
       </c>
       <c r="E6" t="n">
-        <v>54437.99889635088</v>
+        <v>38914.5522617386</v>
       </c>
       <c r="F6" t="n">
-        <v>107123.8889108413</v>
+        <v>91600.44227622901</v>
       </c>
       <c r="G6" t="n">
-        <v>107123.8889108413</v>
+        <v>91600.44227622899</v>
       </c>
       <c r="H6" t="n">
-        <v>107123.8889108413</v>
+        <v>91600.44227622896</v>
       </c>
       <c r="I6" t="n">
-        <v>104841.8632952496</v>
+        <v>89418.38392431001</v>
       </c>
       <c r="J6" t="n">
-        <v>108158.7980806505</v>
+        <v>92735.31870971087</v>
       </c>
       <c r="K6" t="n">
-        <v>108158.7980806505</v>
+        <v>92735.31870971087</v>
       </c>
       <c r="L6" t="n">
-        <v>108158.7980806505</v>
+        <v>92735.3187097109</v>
       </c>
       <c r="M6" t="n">
-        <v>104660.7034648358</v>
+        <v>89137.25683022344</v>
       </c>
       <c r="N6" t="n">
-        <v>107123.8889108413</v>
+        <v>91600.44227622898</v>
       </c>
       <c r="O6" t="n">
-        <v>107123.8889108413</v>
+        <v>91600.44227622898</v>
       </c>
       <c r="P6" t="n">
-        <v>107123.8889108413</v>
+        <v>91600.44227622898</v>
       </c>
     </row>
   </sheetData>
@@ -26749,37 +26749,37 @@
         <v>447.4512810539675</v>
       </c>
       <c r="F3" t="n">
-        <v>447.4512810539674</v>
+        <v>447.4512810539675</v>
       </c>
       <c r="G3" t="n">
-        <v>447.4512810539674</v>
+        <v>447.4512810539675</v>
       </c>
       <c r="H3" t="n">
-        <v>447.4512810539674</v>
+        <v>447.4512810539675</v>
       </c>
       <c r="I3" t="n">
-        <v>447.4512810539674</v>
+        <v>447.4512810539675</v>
       </c>
       <c r="J3" t="n">
-        <v>447.4512810539674</v>
+        <v>447.4512810539675</v>
       </c>
       <c r="K3" t="n">
-        <v>447.4512810539674</v>
+        <v>447.4512810539675</v>
       </c>
       <c r="L3" t="n">
-        <v>447.4512810539674</v>
+        <v>447.4512810539675</v>
       </c>
       <c r="M3" t="n">
-        <v>447.4512810539674</v>
+        <v>447.4512810539675</v>
       </c>
       <c r="N3" t="n">
-        <v>447.4512810539674</v>
+        <v>447.4512810539675</v>
       </c>
       <c r="O3" t="n">
-        <v>447.4512810539674</v>
+        <v>447.4512810539675</v>
       </c>
       <c r="P3" t="n">
-        <v>447.4512810539674</v>
+        <v>447.4512810539675</v>
       </c>
     </row>
     <row r="4">
@@ -26801,37 +26801,37 @@
         <v>22.35759726426244</v>
       </c>
       <c r="F4" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426242</v>
       </c>
       <c r="G4" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426242</v>
       </c>
       <c r="H4" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426242</v>
       </c>
       <c r="I4" t="n">
-        <v>34.83098140993309</v>
+        <v>34.83098140993314</v>
       </c>
       <c r="J4" t="n">
-        <v>34.83098140993309</v>
+        <v>34.83098140993314</v>
       </c>
       <c r="K4" t="n">
-        <v>34.83098140993309</v>
+        <v>34.83098140993314</v>
       </c>
       <c r="L4" t="n">
-        <v>34.83098140993309</v>
+        <v>34.83098140993314</v>
       </c>
       <c r="M4" t="n">
-        <v>22.35759726426238</v>
+        <v>22.3575972642623</v>
       </c>
       <c r="N4" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426244</v>
       </c>
       <c r="O4" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426244</v>
       </c>
       <c r="P4" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426244</v>
       </c>
     </row>
   </sheetData>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>12.47338414567071</v>
+        <v>12.47338414567072</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>9.884213118591731</v>
+        <v>9.884213118591688</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31846,10 +31846,10 @@
         <v>155.4133378732446</v>
       </c>
       <c r="L12" t="n">
-        <v>170.1550985428229</v>
+        <v>191.393940595709</v>
       </c>
       <c r="M12" t="n">
-        <v>195.7611186491248</v>
+        <v>174.5222765962388</v>
       </c>
       <c r="N12" t="n">
         <v>182.5944860059291</v>
@@ -31995,40 +31995,40 @@
         <v>18.42195148580479</v>
       </c>
       <c r="I14" t="n">
-        <v>69.34820306666565</v>
+        <v>69.34820306666566</v>
       </c>
       <c r="J14" t="n">
         <v>152.6708267953937</v>
       </c>
       <c r="K14" t="n">
-        <v>228.8139935371602</v>
+        <v>228.8139935371603</v>
       </c>
       <c r="L14" t="n">
-        <v>283.8639921001968</v>
+        <v>283.8639921001969</v>
       </c>
       <c r="M14" t="n">
-        <v>303.3800018015351</v>
+        <v>303.3800018015352</v>
       </c>
       <c r="N14" t="n">
-        <v>302.2415348521033</v>
+        <v>302.2415348521034</v>
       </c>
       <c r="O14" t="n">
         <v>303.0774151987202</v>
       </c>
       <c r="P14" t="n">
-        <v>258.6695619282887</v>
+        <v>258.6695619282888</v>
       </c>
       <c r="Q14" t="n">
-        <v>194.250068449916</v>
+        <v>194.2500684499161</v>
       </c>
       <c r="R14" t="n">
         <v>112.9938152100755</v>
       </c>
       <c r="S14" t="n">
-        <v>40.99013494278305</v>
+        <v>40.99013494278306</v>
       </c>
       <c r="T14" t="n">
-        <v>7.874243146989916</v>
+        <v>7.874243146989918</v>
       </c>
       <c r="U14" t="n">
         <v>0.1439039295851954</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9624423781160808</v>
+        <v>0.962442378116081</v>
       </c>
       <c r="H15" t="n">
-        <v>9.295167178121098</v>
+        <v>9.295167178121099</v>
       </c>
       <c r="I15" t="n">
         <v>33.13672222899665</v>
       </c>
       <c r="J15" t="n">
-        <v>90.9296985394671</v>
+        <v>90.92969853946713</v>
       </c>
       <c r="K15" t="n">
-        <v>155.4133378732445</v>
+        <v>155.4133378732446</v>
       </c>
       <c r="L15" t="n">
-        <v>191.3939405957089</v>
+        <v>170.1550985428229</v>
       </c>
       <c r="M15" t="n">
-        <v>195.7611186491247</v>
+        <v>195.7611186491248</v>
       </c>
       <c r="N15" t="n">
-        <v>182.594486005929</v>
+        <v>182.5944860059291</v>
       </c>
       <c r="O15" t="n">
-        <v>195.421678223282</v>
+        <v>196.3250154864846</v>
       </c>
       <c r="P15" t="n">
-        <v>163.4487770454829</v>
+        <v>183.7842818351664</v>
       </c>
       <c r="Q15" t="n">
         <v>122.8549253188176</v>
       </c>
       <c r="R15" t="n">
-        <v>59.75585221320721</v>
+        <v>59.75585221320723</v>
       </c>
       <c r="S15" t="n">
         <v>17.87694504965614</v>
       </c>
       <c r="T15" t="n">
-        <v>3.879318181967886</v>
+        <v>3.879318181967887</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06331857750763692</v>
+        <v>0.06331857750763693</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.806879359277646</v>
+        <v>0.8068793592776462</v>
       </c>
       <c r="H16" t="n">
-        <v>7.17389103066853</v>
+        <v>7.173891030668532</v>
       </c>
       <c r="I16" t="n">
         <v>24.26506291354958</v>
       </c>
       <c r="J16" t="n">
-        <v>57.04637070092956</v>
+        <v>57.04637070092958</v>
       </c>
       <c r="K16" t="n">
-        <v>93.74471101425739</v>
+        <v>93.74471101425742</v>
       </c>
       <c r="L16" t="n">
         <v>119.9609549238784</v>
@@ -32171,13 +32171,13 @@
         <v>123.4745477701875</v>
       </c>
       <c r="O16" t="n">
-        <v>114.048729800444</v>
+        <v>114.0487298004441</v>
       </c>
       <c r="P16" t="n">
-        <v>97.58839087117998</v>
+        <v>97.58839087118001</v>
       </c>
       <c r="Q16" t="n">
-        <v>67.56514343914907</v>
+        <v>67.56514343914908</v>
       </c>
       <c r="R16" t="n">
         <v>36.28023009988397</v>
@@ -32186,10 +32186,10 @@
         <v>14.06170665213861</v>
       </c>
       <c r="T16" t="n">
-        <v>3.447575444186305</v>
+        <v>3.447575444186306</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04401160141514437</v>
+        <v>0.04401160141514439</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,40 +32232,40 @@
         <v>18.42195148580479</v>
       </c>
       <c r="I17" t="n">
-        <v>69.34820306666565</v>
+        <v>69.34820306666566</v>
       </c>
       <c r="J17" t="n">
         <v>152.6708267953937</v>
       </c>
       <c r="K17" t="n">
-        <v>228.8139935371602</v>
+        <v>228.8139935371603</v>
       </c>
       <c r="L17" t="n">
-        <v>283.8639921001968</v>
+        <v>283.8639921001969</v>
       </c>
       <c r="M17" t="n">
-        <v>303.3800018015351</v>
+        <v>303.3800018015352</v>
       </c>
       <c r="N17" t="n">
-        <v>302.2415348521033</v>
+        <v>302.2415348521034</v>
       </c>
       <c r="O17" t="n">
         <v>303.0774151987202</v>
       </c>
       <c r="P17" t="n">
-        <v>258.6695619282887</v>
+        <v>258.6695619282888</v>
       </c>
       <c r="Q17" t="n">
-        <v>194.250068449916</v>
+        <v>194.2500684499161</v>
       </c>
       <c r="R17" t="n">
         <v>112.9938152100755</v>
       </c>
       <c r="S17" t="n">
-        <v>40.99013494278305</v>
+        <v>40.99013494278306</v>
       </c>
       <c r="T17" t="n">
-        <v>7.874243146989916</v>
+        <v>7.874243146989918</v>
       </c>
       <c r="U17" t="n">
         <v>0.1439039295851954</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9624423781160808</v>
+        <v>0.962442378116081</v>
       </c>
       <c r="H18" t="n">
-        <v>9.295167178121098</v>
+        <v>9.295167178121099</v>
       </c>
       <c r="I18" t="n">
         <v>33.13672222899665</v>
       </c>
       <c r="J18" t="n">
-        <v>90.9296985394671</v>
+        <v>90.92969853946713</v>
       </c>
       <c r="K18" t="n">
-        <v>155.4133378732445</v>
+        <v>155.4133378732446</v>
       </c>
       <c r="L18" t="n">
-        <v>170.1550985428229</v>
+        <v>190.4906033325064</v>
       </c>
       <c r="M18" t="n">
-        <v>195.7611186491247</v>
+        <v>195.7611186491248</v>
       </c>
       <c r="N18" t="n">
-        <v>182.594486005929</v>
+        <v>182.5944860059291</v>
       </c>
       <c r="O18" t="n">
         <v>196.3250154864846</v>
       </c>
       <c r="P18" t="n">
-        <v>183.7842818351664</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q18" t="n">
         <v>122.8549253188176</v>
       </c>
       <c r="R18" t="n">
-        <v>59.75585221320721</v>
+        <v>59.75585221320723</v>
       </c>
       <c r="S18" t="n">
         <v>17.87694504965614</v>
       </c>
       <c r="T18" t="n">
-        <v>3.879318181967886</v>
+        <v>3.879318181967887</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06331857750763692</v>
+        <v>0.06331857750763693</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.806879359277646</v>
+        <v>0.8068793592776462</v>
       </c>
       <c r="H19" t="n">
-        <v>7.17389103066853</v>
+        <v>7.173891030668532</v>
       </c>
       <c r="I19" t="n">
         <v>24.26506291354958</v>
       </c>
       <c r="J19" t="n">
-        <v>57.04637070092956</v>
+        <v>57.04637070092958</v>
       </c>
       <c r="K19" t="n">
-        <v>93.74471101425739</v>
+        <v>93.74471101425742</v>
       </c>
       <c r="L19" t="n">
         <v>119.9609549238784</v>
@@ -32408,13 +32408,13 @@
         <v>123.4745477701875</v>
       </c>
       <c r="O19" t="n">
-        <v>114.048729800444</v>
+        <v>114.0487298004441</v>
       </c>
       <c r="P19" t="n">
-        <v>97.58839087117998</v>
+        <v>97.58839087118001</v>
       </c>
       <c r="Q19" t="n">
-        <v>67.56514343914907</v>
+        <v>67.56514343914908</v>
       </c>
       <c r="R19" t="n">
         <v>36.28023009988397</v>
@@ -32423,10 +32423,10 @@
         <v>14.06170665213861</v>
       </c>
       <c r="T19" t="n">
-        <v>3.447575444186305</v>
+        <v>3.447575444186306</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04401160141514437</v>
+        <v>0.04401160141514439</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,40 +32469,40 @@
         <v>18.42195148580479</v>
       </c>
       <c r="I20" t="n">
-        <v>69.34820306666565</v>
+        <v>69.34820306666566</v>
       </c>
       <c r="J20" t="n">
         <v>152.6708267953937</v>
       </c>
       <c r="K20" t="n">
-        <v>228.8139935371602</v>
+        <v>228.8139935371603</v>
       </c>
       <c r="L20" t="n">
-        <v>283.8639921001968</v>
+        <v>283.8639921001969</v>
       </c>
       <c r="M20" t="n">
-        <v>303.3800018015351</v>
+        <v>303.3800018015352</v>
       </c>
       <c r="N20" t="n">
-        <v>302.2415348521033</v>
+        <v>302.2415348521034</v>
       </c>
       <c r="O20" t="n">
         <v>303.0774151987202</v>
       </c>
       <c r="P20" t="n">
-        <v>258.6695619282887</v>
+        <v>258.6695619282888</v>
       </c>
       <c r="Q20" t="n">
-        <v>194.250068449916</v>
+        <v>194.2500684499161</v>
       </c>
       <c r="R20" t="n">
         <v>112.9938152100755</v>
       </c>
       <c r="S20" t="n">
-        <v>40.99013494278305</v>
+        <v>40.99013494278306</v>
       </c>
       <c r="T20" t="n">
-        <v>7.874243146989916</v>
+        <v>7.874243146989918</v>
       </c>
       <c r="U20" t="n">
         <v>0.1439039295851954</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9624423781160808</v>
+        <v>0.962442378116081</v>
       </c>
       <c r="H21" t="n">
-        <v>9.295167178121098</v>
+        <v>9.295167178121099</v>
       </c>
       <c r="I21" t="n">
         <v>33.13672222899665</v>
       </c>
       <c r="J21" t="n">
-        <v>90.9296985394671</v>
+        <v>90.92969853946713</v>
       </c>
       <c r="K21" t="n">
-        <v>155.4133378732445</v>
+        <v>155.4133378732446</v>
       </c>
       <c r="L21" t="n">
         <v>191.3939405957089</v>
       </c>
       <c r="M21" t="n">
-        <v>195.7611186491247</v>
+        <v>195.7611186491248</v>
       </c>
       <c r="N21" t="n">
-        <v>182.594486005929</v>
+        <v>182.5944860059291</v>
       </c>
       <c r="O21" t="n">
-        <v>175.0861734335986</v>
+        <v>195.4216782232821</v>
       </c>
       <c r="P21" t="n">
-        <v>183.7842818351664</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q21" t="n">
         <v>122.8549253188176</v>
       </c>
       <c r="R21" t="n">
-        <v>59.75585221320721</v>
+        <v>59.75585221320723</v>
       </c>
       <c r="S21" t="n">
         <v>17.87694504965614</v>
       </c>
       <c r="T21" t="n">
-        <v>3.879318181967886</v>
+        <v>3.879318181967887</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06331857750763692</v>
+        <v>0.06331857750763693</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.806879359277646</v>
+        <v>0.8068793592776462</v>
       </c>
       <c r="H22" t="n">
-        <v>7.17389103066853</v>
+        <v>7.173891030668532</v>
       </c>
       <c r="I22" t="n">
         <v>24.26506291354958</v>
       </c>
       <c r="J22" t="n">
-        <v>57.04637070092956</v>
+        <v>57.04637070092958</v>
       </c>
       <c r="K22" t="n">
-        <v>93.74471101425739</v>
+        <v>93.74471101425742</v>
       </c>
       <c r="L22" t="n">
         <v>119.9609549238784</v>
@@ -32645,13 +32645,13 @@
         <v>123.4745477701875</v>
       </c>
       <c r="O22" t="n">
-        <v>114.048729800444</v>
+        <v>114.0487298004441</v>
       </c>
       <c r="P22" t="n">
-        <v>97.58839087117998</v>
+        <v>97.58839087118001</v>
       </c>
       <c r="Q22" t="n">
-        <v>67.56514343914907</v>
+        <v>67.56514343914908</v>
       </c>
       <c r="R22" t="n">
         <v>36.28023009988397</v>
@@ -32660,10 +32660,10 @@
         <v>14.06170665213861</v>
       </c>
       <c r="T22" t="n">
-        <v>3.447575444186305</v>
+        <v>3.447575444186306</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04401160141514437</v>
+        <v>0.04401160141514439</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32706,40 +32706,40 @@
         <v>18.42195148580479</v>
       </c>
       <c r="I23" t="n">
-        <v>69.34820306666565</v>
+        <v>69.34820306666566</v>
       </c>
       <c r="J23" t="n">
         <v>152.6708267953937</v>
       </c>
       <c r="K23" t="n">
-        <v>228.8139935371602</v>
+        <v>228.8139935371603</v>
       </c>
       <c r="L23" t="n">
-        <v>283.8639921001968</v>
+        <v>283.8639921001969</v>
       </c>
       <c r="M23" t="n">
-        <v>315.8533859472058</v>
+        <v>315.8533859472059</v>
       </c>
       <c r="N23" t="n">
-        <v>314.714918997774</v>
+        <v>314.7149189977741</v>
       </c>
       <c r="O23" t="n">
         <v>303.0774151987202</v>
       </c>
       <c r="P23" t="n">
-        <v>258.6695619282887</v>
+        <v>258.6695619282888</v>
       </c>
       <c r="Q23" t="n">
-        <v>194.250068449916</v>
+        <v>194.2500684499161</v>
       </c>
       <c r="R23" t="n">
         <v>112.9938152100755</v>
       </c>
       <c r="S23" t="n">
-        <v>40.99013494278305</v>
+        <v>40.99013494278306</v>
       </c>
       <c r="T23" t="n">
-        <v>7.874243146989916</v>
+        <v>7.874243146989918</v>
       </c>
       <c r="U23" t="n">
         <v>0.1439039295851954</v>
@@ -32779,28 +32779,28 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9624423781160808</v>
+        <v>0.962442378116081</v>
       </c>
       <c r="H24" t="n">
-        <v>9.295167178121098</v>
+        <v>9.295167178121099</v>
       </c>
       <c r="I24" t="n">
         <v>33.13672222899665</v>
       </c>
       <c r="J24" t="n">
-        <v>90.9296985394671</v>
+        <v>90.92969853946713</v>
       </c>
       <c r="K24" t="n">
-        <v>155.4133378732445</v>
+        <v>155.4133378732446</v>
       </c>
       <c r="L24" t="n">
-        <v>182.1245075714968</v>
+        <v>203.8673247413797</v>
       </c>
       <c r="M24" t="n">
-        <v>208.2345027947954</v>
+        <v>186.4916856249127</v>
       </c>
       <c r="N24" t="n">
-        <v>195.0678701515997</v>
+        <v>195.0678701515998</v>
       </c>
       <c r="O24" t="n">
         <v>208.7983996321553</v>
@@ -32812,16 +32812,16 @@
         <v>122.8549253188176</v>
       </c>
       <c r="R24" t="n">
-        <v>59.75585221320721</v>
+        <v>59.75585221320723</v>
       </c>
       <c r="S24" t="n">
         <v>17.87694504965614</v>
       </c>
       <c r="T24" t="n">
-        <v>3.879318181967886</v>
+        <v>3.879318181967887</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06331857750763692</v>
+        <v>0.06331857750763693</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.806879359277646</v>
+        <v>0.8068793592776462</v>
       </c>
       <c r="H25" t="n">
-        <v>7.17389103066853</v>
+        <v>7.173891030668532</v>
       </c>
       <c r="I25" t="n">
         <v>24.26506291354958</v>
       </c>
       <c r="J25" t="n">
-        <v>57.04637070092956</v>
+        <v>57.04637070092958</v>
       </c>
       <c r="K25" t="n">
-        <v>93.74471101425739</v>
+        <v>93.74471101425742</v>
       </c>
       <c r="L25" t="n">
         <v>119.9609549238784</v>
@@ -32882,13 +32882,13 @@
         <v>123.4745477701875</v>
       </c>
       <c r="O25" t="n">
-        <v>114.048729800444</v>
+        <v>114.0487298004441</v>
       </c>
       <c r="P25" t="n">
-        <v>97.58839087117998</v>
+        <v>97.58839087118001</v>
       </c>
       <c r="Q25" t="n">
-        <v>67.56514343914907</v>
+        <v>67.56514343914908</v>
       </c>
       <c r="R25" t="n">
         <v>36.28023009988397</v>
@@ -32897,10 +32897,10 @@
         <v>14.06170665213861</v>
       </c>
       <c r="T25" t="n">
-        <v>3.447575444186305</v>
+        <v>3.447575444186306</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04401160141514437</v>
+        <v>0.04401160141514439</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32943,40 +32943,40 @@
         <v>18.42195148580479</v>
       </c>
       <c r="I26" t="n">
-        <v>69.34820306666565</v>
+        <v>69.34820306666566</v>
       </c>
       <c r="J26" t="n">
         <v>152.6708267953937</v>
       </c>
       <c r="K26" t="n">
-        <v>228.8139935371602</v>
+        <v>228.8139935371603</v>
       </c>
       <c r="L26" t="n">
-        <v>283.8639921001968</v>
+        <v>283.8639921001969</v>
       </c>
       <c r="M26" t="n">
-        <v>315.8533859472058</v>
+        <v>315.8533859472059</v>
       </c>
       <c r="N26" t="n">
-        <v>314.714918997774</v>
+        <v>314.7149189977741</v>
       </c>
       <c r="O26" t="n">
         <v>303.0774151987202</v>
       </c>
       <c r="P26" t="n">
-        <v>258.6695619282887</v>
+        <v>258.6695619282888</v>
       </c>
       <c r="Q26" t="n">
-        <v>194.250068449916</v>
+        <v>194.2500684499161</v>
       </c>
       <c r="R26" t="n">
         <v>112.9938152100755</v>
       </c>
       <c r="S26" t="n">
-        <v>40.99013494278305</v>
+        <v>40.99013494278306</v>
       </c>
       <c r="T26" t="n">
-        <v>7.874243146989916</v>
+        <v>7.874243146989918</v>
       </c>
       <c r="U26" t="n">
         <v>0.1439039295851954</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9624423781160808</v>
+        <v>0.962442378116081</v>
       </c>
       <c r="H27" t="n">
-        <v>9.295167178121098</v>
+        <v>9.295167178121099</v>
       </c>
       <c r="I27" t="n">
         <v>33.13672222899665</v>
       </c>
       <c r="J27" t="n">
-        <v>90.9296985394671</v>
+        <v>90.92969853946713</v>
       </c>
       <c r="K27" t="n">
-        <v>155.4133378732445</v>
+        <v>155.4133378732446</v>
       </c>
       <c r="L27" t="n">
-        <v>182.1245075714968</v>
+        <v>203.8673247413797</v>
       </c>
       <c r="M27" t="n">
-        <v>208.2345027947954</v>
+        <v>208.2345027947955</v>
       </c>
       <c r="N27" t="n">
-        <v>195.0678701515997</v>
+        <v>195.0678701515998</v>
       </c>
       <c r="O27" t="n">
-        <v>208.7983996321553</v>
+        <v>207.391087251956</v>
       </c>
       <c r="P27" t="n">
-        <v>183.7842818351664</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q27" t="n">
         <v>122.8549253188176</v>
       </c>
       <c r="R27" t="n">
-        <v>59.75585221320721</v>
+        <v>59.75585221320723</v>
       </c>
       <c r="S27" t="n">
         <v>17.87694504965614</v>
       </c>
       <c r="T27" t="n">
-        <v>3.879318181967886</v>
+        <v>3.879318181967887</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06331857750763692</v>
+        <v>0.06331857750763693</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.806879359277646</v>
+        <v>0.8068793592776462</v>
       </c>
       <c r="H28" t="n">
-        <v>7.17389103066853</v>
+        <v>7.173891030668532</v>
       </c>
       <c r="I28" t="n">
         <v>24.26506291354958</v>
       </c>
       <c r="J28" t="n">
-        <v>57.04637070092956</v>
+        <v>57.04637070092958</v>
       </c>
       <c r="K28" t="n">
-        <v>93.74471101425739</v>
+        <v>93.74471101425742</v>
       </c>
       <c r="L28" t="n">
         <v>119.9609549238784</v>
@@ -33119,13 +33119,13 @@
         <v>123.4745477701875</v>
       </c>
       <c r="O28" t="n">
-        <v>114.048729800444</v>
+        <v>114.0487298004441</v>
       </c>
       <c r="P28" t="n">
-        <v>97.58839087117998</v>
+        <v>97.58839087118001</v>
       </c>
       <c r="Q28" t="n">
-        <v>67.56514343914907</v>
+        <v>67.56514343914908</v>
       </c>
       <c r="R28" t="n">
         <v>36.28023009988397</v>
@@ -33134,10 +33134,10 @@
         <v>14.06170665213861</v>
       </c>
       <c r="T28" t="n">
-        <v>3.447575444186305</v>
+        <v>3.447575444186306</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04401160141514437</v>
+        <v>0.04401160141514439</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33180,40 +33180,40 @@
         <v>18.42195148580479</v>
       </c>
       <c r="I29" t="n">
-        <v>69.34820306666565</v>
+        <v>69.34820306666566</v>
       </c>
       <c r="J29" t="n">
         <v>152.6708267953937</v>
       </c>
       <c r="K29" t="n">
-        <v>228.8139935371602</v>
+        <v>228.8139935371603</v>
       </c>
       <c r="L29" t="n">
-        <v>283.8639921001968</v>
+        <v>283.8639921001969</v>
       </c>
       <c r="M29" t="n">
-        <v>315.8533859472058</v>
+        <v>315.8533859472059</v>
       </c>
       <c r="N29" t="n">
-        <v>314.714918997774</v>
+        <v>314.7149189977741</v>
       </c>
       <c r="O29" t="n">
         <v>303.0774151987202</v>
       </c>
       <c r="P29" t="n">
-        <v>258.6695619282887</v>
+        <v>258.6695619282888</v>
       </c>
       <c r="Q29" t="n">
-        <v>194.250068449916</v>
+        <v>194.2500684499161</v>
       </c>
       <c r="R29" t="n">
         <v>112.9938152100755</v>
       </c>
       <c r="S29" t="n">
-        <v>40.99013494278305</v>
+        <v>40.99013494278306</v>
       </c>
       <c r="T29" t="n">
-        <v>7.874243146989916</v>
+        <v>7.874243146989918</v>
       </c>
       <c r="U29" t="n">
         <v>0.1439039295851954</v>
@@ -33253,28 +33253,28 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9624423781160808</v>
+        <v>0.962442378116081</v>
       </c>
       <c r="H30" t="n">
-        <v>9.295167178121098</v>
+        <v>9.295167178121099</v>
       </c>
       <c r="I30" t="n">
         <v>33.13672222899665</v>
       </c>
       <c r="J30" t="n">
-        <v>90.9296985394671</v>
+        <v>90.92969853946713</v>
       </c>
       <c r="K30" t="n">
-        <v>155.4133378732445</v>
+        <v>155.4133378732446</v>
       </c>
       <c r="L30" t="n">
-        <v>182.1245075714968</v>
+        <v>203.8673247413797</v>
       </c>
       <c r="M30" t="n">
-        <v>208.2345027947954</v>
+        <v>208.2345027947955</v>
       </c>
       <c r="N30" t="n">
-        <v>195.0678701515997</v>
+        <v>173.325052981717</v>
       </c>
       <c r="O30" t="n">
         <v>208.7983996321553</v>
@@ -33286,16 +33286,16 @@
         <v>122.8549253188176</v>
       </c>
       <c r="R30" t="n">
-        <v>59.75585221320721</v>
+        <v>59.75585221320723</v>
       </c>
       <c r="S30" t="n">
         <v>17.87694504965614</v>
       </c>
       <c r="T30" t="n">
-        <v>3.879318181967886</v>
+        <v>3.879318181967887</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06331857750763692</v>
+        <v>0.06331857750763693</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.806879359277646</v>
+        <v>0.8068793592776462</v>
       </c>
       <c r="H31" t="n">
-        <v>7.17389103066853</v>
+        <v>7.173891030668532</v>
       </c>
       <c r="I31" t="n">
         <v>24.26506291354958</v>
       </c>
       <c r="J31" t="n">
-        <v>57.04637070092956</v>
+        <v>57.04637070092958</v>
       </c>
       <c r="K31" t="n">
-        <v>93.74471101425739</v>
+        <v>93.74471101425742</v>
       </c>
       <c r="L31" t="n">
         <v>119.9609549238784</v>
@@ -33356,13 +33356,13 @@
         <v>123.4745477701875</v>
       </c>
       <c r="O31" t="n">
-        <v>114.048729800444</v>
+        <v>114.0487298004441</v>
       </c>
       <c r="P31" t="n">
-        <v>97.58839087117998</v>
+        <v>97.58839087118001</v>
       </c>
       <c r="Q31" t="n">
-        <v>67.56514343914907</v>
+        <v>67.56514343914908</v>
       </c>
       <c r="R31" t="n">
         <v>36.28023009988397</v>
@@ -33371,10 +33371,10 @@
         <v>14.06170665213861</v>
       </c>
       <c r="T31" t="n">
-        <v>3.447575444186305</v>
+        <v>3.447575444186306</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04401160141514437</v>
+        <v>0.04401160141514439</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33417,40 +33417,40 @@
         <v>18.42195148580479</v>
       </c>
       <c r="I32" t="n">
-        <v>69.34820306666565</v>
+        <v>69.34820306666566</v>
       </c>
       <c r="J32" t="n">
         <v>152.6708267953937</v>
       </c>
       <c r="K32" t="n">
-        <v>228.8139935371602</v>
+        <v>228.8139935371603</v>
       </c>
       <c r="L32" t="n">
-        <v>283.8639921001968</v>
+        <v>283.8639921001969</v>
       </c>
       <c r="M32" t="n">
-        <v>315.8533859472058</v>
+        <v>315.8533859472059</v>
       </c>
       <c r="N32" t="n">
-        <v>314.714918997774</v>
+        <v>314.7149189977741</v>
       </c>
       <c r="O32" t="n">
         <v>303.0774151987202</v>
       </c>
       <c r="P32" t="n">
-        <v>258.6695619282887</v>
+        <v>258.6695619282888</v>
       </c>
       <c r="Q32" t="n">
-        <v>194.250068449916</v>
+        <v>194.2500684499161</v>
       </c>
       <c r="R32" t="n">
         <v>112.9938152100755</v>
       </c>
       <c r="S32" t="n">
-        <v>40.99013494278305</v>
+        <v>40.99013494278306</v>
       </c>
       <c r="T32" t="n">
-        <v>7.874243146989916</v>
+        <v>7.874243146989918</v>
       </c>
       <c r="U32" t="n">
         <v>0.1439039295851954</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9624423781160808</v>
+        <v>0.962442378116081</v>
       </c>
       <c r="H33" t="n">
-        <v>9.295167178121098</v>
+        <v>9.295167178121099</v>
       </c>
       <c r="I33" t="n">
         <v>33.13672222899665</v>
       </c>
       <c r="J33" t="n">
-        <v>90.9296985394671</v>
+        <v>90.92969853946713</v>
       </c>
       <c r="K33" t="n">
-        <v>155.4133378732445</v>
+        <v>155.4133378732446</v>
       </c>
       <c r="L33" t="n">
-        <v>203.8673247413796</v>
+        <v>203.8673247413797</v>
       </c>
       <c r="M33" t="n">
-        <v>208.2345027947954</v>
+        <v>208.2345027947955</v>
       </c>
       <c r="N33" t="n">
-        <v>195.0678701515997</v>
+        <v>195.0678701515998</v>
       </c>
       <c r="O33" t="n">
-        <v>187.0555824622725</v>
+        <v>207.391087251956</v>
       </c>
       <c r="P33" t="n">
-        <v>183.7842818351664</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q33" t="n">
         <v>122.8549253188176</v>
       </c>
       <c r="R33" t="n">
-        <v>59.75585221320721</v>
+        <v>59.75585221320723</v>
       </c>
       <c r="S33" t="n">
         <v>17.87694504965614</v>
       </c>
       <c r="T33" t="n">
-        <v>3.879318181967886</v>
+        <v>3.879318181967887</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06331857750763692</v>
+        <v>0.06331857750763693</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.806879359277646</v>
+        <v>0.8068793592776462</v>
       </c>
       <c r="H34" t="n">
-        <v>7.17389103066853</v>
+        <v>7.173891030668532</v>
       </c>
       <c r="I34" t="n">
         <v>24.26506291354958</v>
       </c>
       <c r="J34" t="n">
-        <v>57.04637070092956</v>
+        <v>57.04637070092958</v>
       </c>
       <c r="K34" t="n">
-        <v>93.74471101425739</v>
+        <v>93.74471101425742</v>
       </c>
       <c r="L34" t="n">
         <v>119.9609549238784</v>
@@ -33593,13 +33593,13 @@
         <v>123.4745477701875</v>
       </c>
       <c r="O34" t="n">
-        <v>114.048729800444</v>
+        <v>114.0487298004441</v>
       </c>
       <c r="P34" t="n">
-        <v>97.58839087117998</v>
+        <v>97.58839087118001</v>
       </c>
       <c r="Q34" t="n">
-        <v>67.56514343914907</v>
+        <v>67.56514343914908</v>
       </c>
       <c r="R34" t="n">
         <v>36.28023009988397</v>
@@ -33608,10 +33608,10 @@
         <v>14.06170665213861</v>
       </c>
       <c r="T34" t="n">
-        <v>3.447575444186305</v>
+        <v>3.447575444186306</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04401160141514437</v>
+        <v>0.04401160141514439</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33654,16 +33654,16 @@
         <v>18.42195148580479</v>
       </c>
       <c r="I35" t="n">
-        <v>69.34820306666565</v>
+        <v>69.34820306666566</v>
       </c>
       <c r="J35" t="n">
         <v>152.6708267953937</v>
       </c>
       <c r="K35" t="n">
-        <v>228.8139935371602</v>
+        <v>228.8139935371603</v>
       </c>
       <c r="L35" t="n">
-        <v>283.8639921001968</v>
+        <v>283.8639921001969</v>
       </c>
       <c r="M35" t="n">
         <v>303.3800018015351</v>
@@ -33675,19 +33675,19 @@
         <v>303.0774151987202</v>
       </c>
       <c r="P35" t="n">
-        <v>258.6695619282887</v>
+        <v>258.6695619282888</v>
       </c>
       <c r="Q35" t="n">
-        <v>194.250068449916</v>
+        <v>194.2500684499161</v>
       </c>
       <c r="R35" t="n">
         <v>112.9938152100755</v>
       </c>
       <c r="S35" t="n">
-        <v>40.99013494278305</v>
+        <v>40.99013494278306</v>
       </c>
       <c r="T35" t="n">
-        <v>7.874243146989916</v>
+        <v>7.874243146989918</v>
       </c>
       <c r="U35" t="n">
         <v>0.1439039295851954</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9624423781160808</v>
+        <v>0.962442378116081</v>
       </c>
       <c r="H36" t="n">
-        <v>9.295167178121098</v>
+        <v>9.295167178121099</v>
       </c>
       <c r="I36" t="n">
         <v>33.13672222899665</v>
       </c>
       <c r="J36" t="n">
-        <v>90.9296985394671</v>
+        <v>90.92969853946713</v>
       </c>
       <c r="K36" t="n">
-        <v>155.4133378732445</v>
+        <v>155.4133378732446</v>
       </c>
       <c r="L36" t="n">
-        <v>191.3939405957089</v>
+        <v>170.1550985428228</v>
       </c>
       <c r="M36" t="n">
-        <v>174.5222765962388</v>
+        <v>195.7611186491247</v>
       </c>
       <c r="N36" t="n">
         <v>182.594486005929</v>
       </c>
       <c r="O36" t="n">
-        <v>196.3250154864846</v>
+        <v>196.3250154864845</v>
       </c>
       <c r="P36" t="n">
         <v>183.7842818351664</v>
@@ -33760,16 +33760,16 @@
         <v>122.8549253188176</v>
       </c>
       <c r="R36" t="n">
-        <v>59.75585221320721</v>
+        <v>59.75585221320723</v>
       </c>
       <c r="S36" t="n">
         <v>17.87694504965614</v>
       </c>
       <c r="T36" t="n">
-        <v>3.879318181967886</v>
+        <v>3.879318181967887</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06331857750763692</v>
+        <v>0.06331857750763693</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.806879359277646</v>
+        <v>0.8068793592776462</v>
       </c>
       <c r="H37" t="n">
-        <v>7.17389103066853</v>
+        <v>7.173891030668532</v>
       </c>
       <c r="I37" t="n">
         <v>24.26506291354958</v>
       </c>
       <c r="J37" t="n">
-        <v>57.04637070092956</v>
+        <v>57.04637070092958</v>
       </c>
       <c r="K37" t="n">
-        <v>93.74471101425739</v>
+        <v>93.74471101425742</v>
       </c>
       <c r="L37" t="n">
         <v>119.9609549238784</v>
@@ -33830,13 +33830,13 @@
         <v>123.4745477701875</v>
       </c>
       <c r="O37" t="n">
-        <v>114.048729800444</v>
+        <v>114.0487298004441</v>
       </c>
       <c r="P37" t="n">
-        <v>97.58839087117998</v>
+        <v>97.58839087118001</v>
       </c>
       <c r="Q37" t="n">
-        <v>67.56514343914907</v>
+        <v>67.56514343914908</v>
       </c>
       <c r="R37" t="n">
         <v>36.28023009988397</v>
@@ -33845,10 +33845,10 @@
         <v>14.06170665213861</v>
       </c>
       <c r="T37" t="n">
-        <v>3.447575444186305</v>
+        <v>3.447575444186306</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04401160141514437</v>
+        <v>0.04401160141514439</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33891,40 +33891,40 @@
         <v>18.42195148580479</v>
       </c>
       <c r="I38" t="n">
-        <v>69.34820306666565</v>
+        <v>69.34820306666566</v>
       </c>
       <c r="J38" t="n">
         <v>152.6708267953937</v>
       </c>
       <c r="K38" t="n">
-        <v>228.8139935371602</v>
+        <v>228.8139935371603</v>
       </c>
       <c r="L38" t="n">
-        <v>283.8639921001968</v>
+        <v>283.8639921001969</v>
       </c>
       <c r="M38" t="n">
-        <v>303.3800018015351</v>
+        <v>303.3800018015352</v>
       </c>
       <c r="N38" t="n">
-        <v>302.2415348521033</v>
+        <v>302.2415348521034</v>
       </c>
       <c r="O38" t="n">
         <v>303.0774151987202</v>
       </c>
       <c r="P38" t="n">
-        <v>258.6695619282887</v>
+        <v>258.6695619282888</v>
       </c>
       <c r="Q38" t="n">
-        <v>194.250068449916</v>
+        <v>194.2500684499161</v>
       </c>
       <c r="R38" t="n">
         <v>112.9938152100755</v>
       </c>
       <c r="S38" t="n">
-        <v>40.99013494278305</v>
+        <v>40.99013494278306</v>
       </c>
       <c r="T38" t="n">
-        <v>7.874243146989916</v>
+        <v>7.874243146989918</v>
       </c>
       <c r="U38" t="n">
         <v>0.1439039295851954</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9624423781160808</v>
+        <v>0.962442378116081</v>
       </c>
       <c r="H39" t="n">
-        <v>9.295167178121098</v>
+        <v>9.295167178121099</v>
       </c>
       <c r="I39" t="n">
         <v>33.13672222899665</v>
       </c>
       <c r="J39" t="n">
-        <v>90.9296985394671</v>
+        <v>90.92969853946713</v>
       </c>
       <c r="K39" t="n">
-        <v>155.4133378732445</v>
+        <v>155.4133378732446</v>
       </c>
       <c r="L39" t="n">
-        <v>170.1550985428229</v>
+        <v>191.393940595709</v>
       </c>
       <c r="M39" t="n">
-        <v>195.7611186491247</v>
+        <v>195.7611186491248</v>
       </c>
       <c r="N39" t="n">
-        <v>182.594486005929</v>
+        <v>182.5944860059291</v>
       </c>
       <c r="O39" t="n">
-        <v>196.3250154864846</v>
+        <v>175.0861734335986</v>
       </c>
       <c r="P39" t="n">
         <v>183.7842818351664</v>
@@ -33997,16 +33997,16 @@
         <v>122.8549253188176</v>
       </c>
       <c r="R39" t="n">
-        <v>59.75585221320721</v>
+        <v>59.75585221320723</v>
       </c>
       <c r="S39" t="n">
         <v>17.87694504965614</v>
       </c>
       <c r="T39" t="n">
-        <v>3.879318181967886</v>
+        <v>3.879318181967887</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06331857750763692</v>
+        <v>0.06331857750763693</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.806879359277646</v>
+        <v>0.8068793592776462</v>
       </c>
       <c r="H40" t="n">
-        <v>7.17389103066853</v>
+        <v>7.173891030668532</v>
       </c>
       <c r="I40" t="n">
         <v>24.26506291354958</v>
       </c>
       <c r="J40" t="n">
-        <v>57.04637070092956</v>
+        <v>57.04637070092958</v>
       </c>
       <c r="K40" t="n">
-        <v>93.74471101425739</v>
+        <v>93.74471101425742</v>
       </c>
       <c r="L40" t="n">
         <v>119.9609549238784</v>
@@ -34067,13 +34067,13 @@
         <v>123.4745477701875</v>
       </c>
       <c r="O40" t="n">
-        <v>114.048729800444</v>
+        <v>114.0487298004441</v>
       </c>
       <c r="P40" t="n">
-        <v>97.58839087117998</v>
+        <v>97.58839087118001</v>
       </c>
       <c r="Q40" t="n">
-        <v>67.56514343914907</v>
+        <v>67.56514343914908</v>
       </c>
       <c r="R40" t="n">
         <v>36.28023009988397</v>
@@ -34082,10 +34082,10 @@
         <v>14.06170665213861</v>
       </c>
       <c r="T40" t="n">
-        <v>3.447575444186305</v>
+        <v>3.447575444186306</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04401160141514437</v>
+        <v>0.04401160141514439</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34128,40 +34128,40 @@
         <v>18.42195148580479</v>
       </c>
       <c r="I41" t="n">
-        <v>69.34820306666565</v>
+        <v>69.34820306666566</v>
       </c>
       <c r="J41" t="n">
         <v>152.6708267953937</v>
       </c>
       <c r="K41" t="n">
-        <v>228.8139935371602</v>
+        <v>228.8139935371603</v>
       </c>
       <c r="L41" t="n">
-        <v>283.8639921001968</v>
+        <v>283.8639921001969</v>
       </c>
       <c r="M41" t="n">
-        <v>303.3800018015351</v>
+        <v>303.3800018015352</v>
       </c>
       <c r="N41" t="n">
-        <v>302.2415348521033</v>
+        <v>302.2415348521034</v>
       </c>
       <c r="O41" t="n">
         <v>303.0774151987202</v>
       </c>
       <c r="P41" t="n">
-        <v>258.6695619282887</v>
+        <v>258.6695619282888</v>
       </c>
       <c r="Q41" t="n">
-        <v>194.250068449916</v>
+        <v>194.2500684499161</v>
       </c>
       <c r="R41" t="n">
         <v>112.9938152100755</v>
       </c>
       <c r="S41" t="n">
-        <v>40.99013494278305</v>
+        <v>40.99013494278306</v>
       </c>
       <c r="T41" t="n">
-        <v>7.874243146989916</v>
+        <v>7.874243146989918</v>
       </c>
       <c r="U41" t="n">
         <v>0.1439039295851954</v>
@@ -34201,28 +34201,28 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9624423781160808</v>
+        <v>0.962442378116081</v>
       </c>
       <c r="H42" t="n">
-        <v>9.295167178121098</v>
+        <v>9.295167178121099</v>
       </c>
       <c r="I42" t="n">
         <v>33.13672222899665</v>
       </c>
       <c r="J42" t="n">
-        <v>90.9296985394671</v>
+        <v>90.92969853946713</v>
       </c>
       <c r="K42" t="n">
-        <v>155.4133378732445</v>
+        <v>155.4133378732446</v>
       </c>
       <c r="L42" t="n">
-        <v>191.3939405957089</v>
+        <v>191.393940595709</v>
       </c>
       <c r="M42" t="n">
-        <v>195.7611186491247</v>
+        <v>195.7611186491248</v>
       </c>
       <c r="N42" t="n">
-        <v>182.594486005929</v>
+        <v>182.5944860059291</v>
       </c>
       <c r="O42" t="n">
         <v>175.0861734335986</v>
@@ -34234,16 +34234,16 @@
         <v>122.8549253188176</v>
       </c>
       <c r="R42" t="n">
-        <v>59.75585221320721</v>
+        <v>59.75585221320723</v>
       </c>
       <c r="S42" t="n">
         <v>17.87694504965614</v>
       </c>
       <c r="T42" t="n">
-        <v>3.879318181967886</v>
+        <v>3.879318181967887</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06331857750763692</v>
+        <v>0.06331857750763693</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.806879359277646</v>
+        <v>0.8068793592776462</v>
       </c>
       <c r="H43" t="n">
-        <v>7.17389103066853</v>
+        <v>7.173891030668532</v>
       </c>
       <c r="I43" t="n">
         <v>24.26506291354958</v>
       </c>
       <c r="J43" t="n">
-        <v>57.04637070092956</v>
+        <v>57.04637070092958</v>
       </c>
       <c r="K43" t="n">
-        <v>93.74471101425739</v>
+        <v>93.74471101425742</v>
       </c>
       <c r="L43" t="n">
         <v>119.9609549238784</v>
@@ -34304,13 +34304,13 @@
         <v>123.4745477701875</v>
       </c>
       <c r="O43" t="n">
-        <v>114.048729800444</v>
+        <v>114.0487298004441</v>
       </c>
       <c r="P43" t="n">
-        <v>97.58839087117998</v>
+        <v>97.58839087118001</v>
       </c>
       <c r="Q43" t="n">
-        <v>67.56514343914907</v>
+        <v>67.56514343914908</v>
       </c>
       <c r="R43" t="n">
         <v>36.28023009988397</v>
@@ -34319,10 +34319,10 @@
         <v>14.06170665213861</v>
       </c>
       <c r="T43" t="n">
-        <v>3.447575444186305</v>
+        <v>3.447575444186306</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04401160141514437</v>
+        <v>0.04401160141514439</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34365,40 +34365,40 @@
         <v>18.42195148580479</v>
       </c>
       <c r="I44" t="n">
-        <v>69.34820306666565</v>
+        <v>69.34820306666566</v>
       </c>
       <c r="J44" t="n">
         <v>152.6708267953937</v>
       </c>
       <c r="K44" t="n">
-        <v>228.8139935371602</v>
+        <v>228.8139935371603</v>
       </c>
       <c r="L44" t="n">
-        <v>283.8639921001968</v>
+        <v>283.8639921001969</v>
       </c>
       <c r="M44" t="n">
-        <v>303.3800018015351</v>
+        <v>303.3800018015352</v>
       </c>
       <c r="N44" t="n">
-        <v>302.2415348521033</v>
+        <v>302.2415348521034</v>
       </c>
       <c r="O44" t="n">
         <v>303.0774151987202</v>
       </c>
       <c r="P44" t="n">
-        <v>258.6695619282887</v>
+        <v>258.6695619282888</v>
       </c>
       <c r="Q44" t="n">
-        <v>194.250068449916</v>
+        <v>194.2500684499161</v>
       </c>
       <c r="R44" t="n">
         <v>112.9938152100755</v>
       </c>
       <c r="S44" t="n">
-        <v>40.99013494278305</v>
+        <v>40.99013494278306</v>
       </c>
       <c r="T44" t="n">
-        <v>7.874243146989916</v>
+        <v>7.874243146989918</v>
       </c>
       <c r="U44" t="n">
         <v>0.1439039295851954</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9624423781160808</v>
+        <v>0.962442378116081</v>
       </c>
       <c r="H45" t="n">
-        <v>9.295167178121098</v>
+        <v>9.295167178121099</v>
       </c>
       <c r="I45" t="n">
         <v>33.13672222899665</v>
       </c>
       <c r="J45" t="n">
-        <v>90.9296985394671</v>
+        <v>90.92969853946713</v>
       </c>
       <c r="K45" t="n">
-        <v>155.4133378732445</v>
+        <v>155.4133378732446</v>
       </c>
       <c r="L45" t="n">
-        <v>191.3939405957089</v>
+        <v>190.4906033325064</v>
       </c>
       <c r="M45" t="n">
-        <v>195.7611186491247</v>
+        <v>195.7611186491248</v>
       </c>
       <c r="N45" t="n">
-        <v>182.594486005929</v>
+        <v>182.5944860059291</v>
       </c>
       <c r="O45" t="n">
-        <v>175.0861734335986</v>
+        <v>196.3250154864846</v>
       </c>
       <c r="P45" t="n">
-        <v>183.7842818351664</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q45" t="n">
         <v>122.8549253188176</v>
       </c>
       <c r="R45" t="n">
-        <v>59.75585221320721</v>
+        <v>59.75585221320723</v>
       </c>
       <c r="S45" t="n">
         <v>17.87694504965614</v>
       </c>
       <c r="T45" t="n">
-        <v>3.879318181967886</v>
+        <v>3.879318181967887</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06331857750763692</v>
+        <v>0.06331857750763693</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.806879359277646</v>
+        <v>0.8068793592776462</v>
       </c>
       <c r="H46" t="n">
-        <v>7.17389103066853</v>
+        <v>7.173891030668532</v>
       </c>
       <c r="I46" t="n">
         <v>24.26506291354958</v>
       </c>
       <c r="J46" t="n">
-        <v>57.04637070092956</v>
+        <v>57.04637070092958</v>
       </c>
       <c r="K46" t="n">
-        <v>93.74471101425739</v>
+        <v>93.74471101425742</v>
       </c>
       <c r="L46" t="n">
         <v>119.9609549238784</v>
@@ -34541,13 +34541,13 @@
         <v>123.4745477701875</v>
       </c>
       <c r="O46" t="n">
-        <v>114.048729800444</v>
+        <v>114.0487298004441</v>
       </c>
       <c r="P46" t="n">
-        <v>97.58839087117998</v>
+        <v>97.58839087118001</v>
       </c>
       <c r="Q46" t="n">
-        <v>67.56514343914907</v>
+        <v>67.56514343914908</v>
       </c>
       <c r="R46" t="n">
         <v>36.28023009988397</v>
@@ -34556,10 +34556,10 @@
         <v>14.06170665213861</v>
       </c>
       <c r="T46" t="n">
-        <v>3.447575444186305</v>
+        <v>3.447575444186306</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04401160141514437</v>
+        <v>0.04401160141514439</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35494,10 +35494,10 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>1.1187552113764</v>
+        <v>22.35759726426244</v>
       </c>
       <c r="M12" t="n">
-        <v>22.35759726426244</v>
+        <v>1.118755211376399</v>
       </c>
       <c r="N12" t="n">
         <v>22.35759726426244</v>
@@ -35655,13 +35655,13 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426242</v>
       </c>
       <c r="N14" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426242</v>
       </c>
       <c r="O14" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426242</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35731,19 +35731,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>22.35759726426238</v>
+        <v>1.118755211376387</v>
       </c>
       <c r="M15" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426242</v>
       </c>
       <c r="N15" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426242</v>
       </c>
       <c r="O15" t="n">
-        <v>21.45426000105986</v>
+        <v>22.35759726426242</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>20.33550478968351</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35892,13 +35892,13 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426242</v>
       </c>
       <c r="N17" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426242</v>
       </c>
       <c r="O17" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426244</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35968,19 +35968,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>1.118755211376405</v>
+        <v>21.45426000105991</v>
       </c>
       <c r="M18" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426242</v>
       </c>
       <c r="N18" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426242</v>
       </c>
       <c r="O18" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426242</v>
       </c>
       <c r="P18" t="n">
-        <v>20.33550478968345</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36129,13 +36129,13 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426242</v>
       </c>
       <c r="N20" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426242</v>
       </c>
       <c r="O20" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426242</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36205,19 +36205,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426242</v>
       </c>
       <c r="M21" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426242</v>
       </c>
       <c r="N21" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426242</v>
       </c>
       <c r="O21" t="n">
-        <v>1.118755211376406</v>
+        <v>21.4542600010599</v>
       </c>
       <c r="P21" t="n">
-        <v>20.33550478968345</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36366,13 +36366,13 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>34.83098140993309</v>
+        <v>34.83098140993314</v>
       </c>
       <c r="N23" t="n">
-        <v>34.83098140993309</v>
+        <v>34.83098140993314</v>
       </c>
       <c r="O23" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426244</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36442,19 +36442,19 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>13.08816424005031</v>
+        <v>34.83098140993314</v>
       </c>
       <c r="M24" t="n">
-        <v>34.83098140993309</v>
+        <v>13.0881642400503</v>
       </c>
       <c r="N24" t="n">
-        <v>34.83098140993309</v>
+        <v>34.83098140993314</v>
       </c>
       <c r="O24" t="n">
-        <v>34.83098140993309</v>
+        <v>34.83098140993314</v>
       </c>
       <c r="P24" t="n">
-        <v>20.33550478968345</v>
+        <v>20.33550478968351</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36603,13 +36603,13 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>34.83098140993309</v>
+        <v>34.83098140993314</v>
       </c>
       <c r="N26" t="n">
-        <v>34.83098140993309</v>
+        <v>34.83098140993314</v>
       </c>
       <c r="O26" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426244</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -36679,19 +36679,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>13.08816424005031</v>
+        <v>34.83098140993314</v>
       </c>
       <c r="M27" t="n">
-        <v>34.83098140993309</v>
+        <v>34.83098140993314</v>
       </c>
       <c r="N27" t="n">
-        <v>34.83098140993309</v>
+        <v>34.83098140993314</v>
       </c>
       <c r="O27" t="n">
-        <v>34.83098140993309</v>
+        <v>33.42366902973382</v>
       </c>
       <c r="P27" t="n">
-        <v>20.33550478968345</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36840,13 +36840,13 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>34.83098140993309</v>
+        <v>34.83098140993314</v>
       </c>
       <c r="N29" t="n">
-        <v>34.83098140993309</v>
+        <v>34.83098140993314</v>
       </c>
       <c r="O29" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426244</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -36916,19 +36916,19 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>13.08816424005031</v>
+        <v>34.83098140993314</v>
       </c>
       <c r="M30" t="n">
-        <v>34.83098140993309</v>
+        <v>34.83098140993314</v>
       </c>
       <c r="N30" t="n">
-        <v>34.83098140993309</v>
+        <v>13.0881642400503</v>
       </c>
       <c r="O30" t="n">
-        <v>34.83098140993309</v>
+        <v>34.83098140993314</v>
       </c>
       <c r="P30" t="n">
-        <v>20.33550478968345</v>
+        <v>20.33550478968351</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37077,13 +37077,13 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>34.83098140993309</v>
+        <v>34.83098140993314</v>
       </c>
       <c r="N32" t="n">
-        <v>34.83098140993309</v>
+        <v>34.83098140993314</v>
       </c>
       <c r="O32" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426244</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -37153,19 +37153,19 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>34.83098140993309</v>
+        <v>34.83098140993314</v>
       </c>
       <c r="M33" t="n">
-        <v>34.83098140993309</v>
+        <v>34.83098140993314</v>
       </c>
       <c r="N33" t="n">
-        <v>34.83098140993309</v>
+        <v>34.83098140993314</v>
       </c>
       <c r="O33" t="n">
-        <v>13.08816424005031</v>
+        <v>33.42366902973382</v>
       </c>
       <c r="P33" t="n">
-        <v>20.33550478968345</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37314,13 +37314,13 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>22.35759726426238</v>
+        <v>22.3575972642623</v>
       </c>
       <c r="N35" t="n">
-        <v>22.35759726426238</v>
+        <v>22.3575972642623</v>
       </c>
       <c r="O35" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426244</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -37390,19 +37390,19 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>22.35759726426238</v>
+        <v>1.118755211376275</v>
       </c>
       <c r="M36" t="n">
-        <v>1.118755211376406</v>
+        <v>22.3575972642623</v>
       </c>
       <c r="N36" t="n">
-        <v>22.35759726426238</v>
+        <v>22.3575972642623</v>
       </c>
       <c r="O36" t="n">
-        <v>22.35759726426238</v>
+        <v>22.3575972642623</v>
       </c>
       <c r="P36" t="n">
-        <v>20.33550478968345</v>
+        <v>20.33550478968351</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37551,13 +37551,13 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426244</v>
       </c>
       <c r="N38" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426244</v>
       </c>
       <c r="O38" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426244</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -37627,19 +37627,19 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>1.118755211376405</v>
+        <v>22.35759726426244</v>
       </c>
       <c r="M39" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426244</v>
       </c>
       <c r="N39" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426244</v>
       </c>
       <c r="O39" t="n">
-        <v>22.35759726426238</v>
+        <v>1.118755211376406</v>
       </c>
       <c r="P39" t="n">
-        <v>20.33550478968345</v>
+        <v>20.33550478968351</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37788,13 +37788,13 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426244</v>
       </c>
       <c r="N41" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426244</v>
       </c>
       <c r="O41" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426244</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -37864,19 +37864,19 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426244</v>
       </c>
       <c r="M42" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426244</v>
       </c>
       <c r="N42" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426244</v>
       </c>
       <c r="O42" t="n">
         <v>1.118755211376406</v>
       </c>
       <c r="P42" t="n">
-        <v>20.33550478968345</v>
+        <v>20.33550478968351</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38025,13 +38025,13 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426244</v>
       </c>
       <c r="N44" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426244</v>
       </c>
       <c r="O44" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426244</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38101,19 +38101,19 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>22.35759726426238</v>
+        <v>21.45426000105991</v>
       </c>
       <c r="M45" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426244</v>
       </c>
       <c r="N45" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426244</v>
       </c>
       <c r="O45" t="n">
-        <v>1.118755211376406</v>
+        <v>22.35759726426244</v>
       </c>
       <c r="P45" t="n">
-        <v>20.33550478968345</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
